--- a/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
+++ b/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ssi\Rekap LK\SSI-I.23.001 PCC Adaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F242DE-EE42-4514-A1A4-FF144DFF0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D01007-BA0E-4352-9EEF-3DC47083029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LK.01" sheetId="32" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="LK.14" sheetId="45" r:id="rId14"/>
     <sheet name="LK.15" sheetId="46" r:id="rId15"/>
     <sheet name="LK.16" sheetId="47" r:id="rId16"/>
+    <sheet name="LK.17" sheetId="48" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">LK.01!$B$3:$H$34</definedName>
@@ -47,6 +48,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">LK.14!$B$3:$H$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">LK.15!$B$3:$H$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">LK.16!$B$3:$H$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">LK.17!$B$3:$H$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -241,6 +243,28 @@
 </comments>
 </file>
 
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="G43" authorId="0" shapeId="0" xr:uid="{E1A812D1-6769-42DA-A07D-A22D152BEE18}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="134"/>
+          </rPr>
+          <t>NBLK - Gaji Security, per. 16 Agustus - 15 September</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
@@ -418,7 +442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="175">
   <si>
     <t>NO</t>
   </si>
@@ -2202,6 +2226,117 @@
         <charset val="134"/>
       </rPr>
       <t>28.000.000)</t>
+    </r>
+  </si>
+  <si>
+    <t>16 - LK/2023/XII/005</t>
+  </si>
+  <si>
+    <t>01 Okt 2023 - 15 Okt 2023</t>
+  </si>
+  <si>
+    <t>LK 13 - 16</t>
+  </si>
+  <si>
+    <t>(LK/2023/IX/002, LK/2023/X/001, LK/2023/X/004, LK/2023/XI/003)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>KB Pambudi, Jasminto 1-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">253.500.000/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
+      </rPr>
+      <t>253</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.500.000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KB Jasminto 17 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">4.234.013,00/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>28.000.000)</t>
+    </r>
+  </si>
+  <si>
+    <t>LK.17 - LK/2023/XII/005 - 01 Okt - 15 Okt 2023</t>
+  </si>
+  <si>
+    <r>
+      <t>KB Jasminto 18 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0,00/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>22.000.000)</t>
     </r>
   </si>
 </sst>
@@ -2213,8 +2348,8 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2784,7 +2919,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2793,13 +2928,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2812,10 +2947,10 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2901,50 +3036,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="4" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2953,6 +3049,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2973,26 +3072,62 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3393,11 +3528,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3409,8 +3544,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -3420,10 +3555,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -3431,8 +3566,8 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -3440,8 +3575,8 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -3449,8 +3584,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -3458,8 +3593,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -3506,10 +3641,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -3530,10 +3665,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -3545,10 +3680,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -3566,10 +3701,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>8060090</v>
       </c>
@@ -3597,10 +3732,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="117"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
@@ -3613,10 +3748,10 @@
       <c r="C26" s="60">
         <v>44934</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="124"/>
+      <c r="E26" s="112"/>
       <c r="F26" s="66">
         <v>8060090</v>
       </c>
@@ -3655,11 +3790,11 @@
     </row>
     <row r="29" spans="2:12" ht="20.399999999999999">
       <c r="B29" s="5"/>
-      <c r="C29" s="125" t="s">
+      <c r="C29" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="75">
         <f>F17+F26</f>
         <v>8060090</v>
@@ -3726,10 +3861,10 @@
       <c r="E33" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="127" t="s">
+      <c r="F33" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="128"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" ht="6" customHeight="1">
@@ -3811,21 +3946,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -3950,11 +4085,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3966,8 +4101,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -3977,10 +4112,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -3990,10 +4125,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4004,10 +4139,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4017,10 +4152,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4031,10 +4166,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4044,10 +4179,10 @@
       <c r="C16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27</f>
         <v>14080598</v>
@@ -4058,10 +4193,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4107,10 +4242,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4134,10 +4269,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4149,10 +4284,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4169,10 +4304,10 @@
       <c r="C25" s="60">
         <v>45090</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>2810174</v>
       </c>
@@ -4186,10 +4321,10 @@
       <c r="C26" s="60">
         <v>45103</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>18312758</v>
       </c>
@@ -4217,10 +4352,10 @@
       <c r="C28" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="117"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="56"/>
       <c r="G28" s="65"/>
       <c r="H28" s="10"/>
@@ -4233,10 +4368,10 @@
       <c r="C29" s="60">
         <v>45133</v>
       </c>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="124"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="66">
         <v>21122932</v>
       </c>
@@ -4275,11 +4410,11 @@
     </row>
     <row r="32" spans="2:12" ht="20.399999999999999">
       <c r="B32" s="5"/>
-      <c r="C32" s="125" t="s">
+      <c r="C32" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="75">
         <f>F19+F29</f>
         <v>118312758</v>
@@ -4349,10 +4484,10 @@
       <c r="E36" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="127" t="s">
+      <c r="F36" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="128"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:12" ht="6" customHeight="1">
@@ -4434,6 +4569,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F36:G36"/>
@@ -4442,16 +4587,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -4576,11 +4711,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4592,8 +4727,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4603,10 +4738,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4616,10 +4751,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4630,10 +4765,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4643,10 +4778,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4657,10 +4792,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4670,10 +4805,10 @@
       <c r="C16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29</f>
         <v>35203530</v>
@@ -4684,10 +4819,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4733,10 +4868,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4760,10 +4895,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4775,10 +4910,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4795,10 +4930,10 @@
       <c r="C25" s="60">
         <v>45103</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>1687242</v>
       </c>
@@ -4812,10 +4947,10 @@
       <c r="C26" s="60">
         <v>45128</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>6000000</v>
       </c>
@@ -4829,10 +4964,10 @@
       <c r="C27" s="60">
         <v>45145</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>17000000</v>
       </c>
@@ -4847,10 +4982,10 @@
       <c r="C28" s="60">
         <v>44972</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="121"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59">
         <v>1269039</v>
       </c>
@@ -4878,10 +5013,10 @@
       <c r="C30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="117"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="56"/>
       <c r="G30" s="65"/>
       <c r="H30" s="10"/>
@@ -4894,10 +5029,10 @@
       <c r="C31" s="60">
         <v>45153</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="124"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="66">
         <v>25956281</v>
       </c>
@@ -4936,11 +5071,11 @@
     </row>
     <row r="34" spans="2:12" ht="20.399999999999999">
       <c r="B34" s="5"/>
-      <c r="C34" s="125" t="s">
+      <c r="C34" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="75">
         <f>F19+F31</f>
         <v>144269039</v>
@@ -5010,10 +5145,10 @@
       <c r="E38" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="127" t="s">
+      <c r="F38" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="128"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="6" customHeight="1">
@@ -5095,26 +5230,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -5239,11 +5374,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -5255,8 +5390,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -5266,10 +5401,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -5279,10 +5414,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -5293,10 +5428,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -5306,10 +5441,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -5320,10 +5455,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -5333,10 +5468,10 @@
       <c r="C16" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31</f>
         <v>61159811</v>
@@ -5347,10 +5482,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -5396,10 +5531,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -5423,10 +5558,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -5438,10 +5573,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -5458,10 +5593,10 @@
       <c r="C25" s="60">
         <v>44972</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>1230961</v>
       </c>
@@ -5476,10 +5611,10 @@
       <c r="C26" s="60">
         <v>45124</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>20000000</v>
       </c>
@@ -5494,10 +5629,10 @@
       <c r="C27" s="60">
         <v>45167</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>4667811</v>
       </c>
@@ -5525,10 +5660,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="117"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -5541,10 +5676,10 @@
       <c r="C30" s="60">
         <v>45194</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="124"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="66">
         <v>25898772</v>
       </c>
@@ -5583,11 +5718,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>170167811</v>
@@ -5657,10 +5792,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="127" t="s">
+      <c r="F37" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="128"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -5742,6 +5877,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -5751,16 +5896,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -5885,11 +6020,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -5901,8 +6036,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -5912,10 +6047,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -5925,10 +6060,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -5939,10 +6074,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -5952,10 +6087,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -5966,10 +6101,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -5979,10 +6114,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -5993,10 +6128,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -6042,10 +6177,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="108" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -6069,10 +6204,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -6084,10 +6219,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="119"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -6104,10 +6239,10 @@
       <c r="C25" s="60">
         <v>44972</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="121"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>0</v>
       </c>
@@ -6121,10 +6256,10 @@
       <c r="C26" s="60">
         <v>45167</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>15332189</v>
       </c>
@@ -6139,10 +6274,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>5840596</v>
       </c>
@@ -6170,10 +6305,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="117"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -6186,10 +6321,10 @@
       <c r="C30" s="60">
         <v>45204</v>
       </c>
-      <c r="D30" s="123" t="s">
+      <c r="D30" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="124"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="66">
         <v>21172785</v>
       </c>
@@ -6228,11 +6363,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="125" t="s">
+      <c r="C33" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>191340596</v>
@@ -6302,10 +6437,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="127" t="s">
+      <c r="F37" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="128"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -6387,6 +6522,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -6396,16 +6541,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -6530,11 +6665,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6546,8 +6681,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6557,10 +6692,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6570,10 +6705,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6584,10 +6719,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6597,10 +6732,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6611,10 +6746,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6624,10 +6759,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6638,10 +6773,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -6651,10 +6786,10 @@
       <c r="C18" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="114"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="34">
         <f>+LK.13!F30</f>
         <v>21172785</v>
@@ -6669,10 +6804,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="112"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -6718,10 +6853,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -6745,10 +6880,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="117"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -6760,10 +6895,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -6780,10 +6915,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>15483824</v>
       </c>
@@ -6796,8 +6931,8 @@
     <row r="28" spans="2:12" ht="19.8" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="121"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
       <c r="H28" s="10"/>
@@ -6805,8 +6940,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -6829,10 +6964,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="117"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -6845,10 +6980,10 @@
       <c r="C32" s="60">
         <v>45240</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="124"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="66">
         <v>15483824</v>
       </c>
@@ -6887,11 +7022,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>206824420</v>
@@ -6961,10 +7096,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="127" t="s">
+      <c r="F39" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="128"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7046,27 +7181,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7191,11 +7326,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -7207,8 +7342,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -7218,10 +7353,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -7231,10 +7366,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -7245,10 +7380,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -7258,10 +7393,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -7272,10 +7407,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -7288,10 +7423,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -7302,10 +7437,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -7315,10 +7450,10 @@
       <c r="C18" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="114"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32</f>
         <v>36656609</v>
@@ -7333,10 +7468,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="112"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -7382,10 +7517,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -7409,10 +7544,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="117"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -7424,10 +7559,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -7444,10 +7579,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>3675580</v>
       </c>
@@ -7462,10 +7597,10 @@
       <c r="C28" s="60">
         <v>45215</v>
       </c>
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="121"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59">
         <v>17562013</v>
       </c>
@@ -7478,8 +7613,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -7502,10 +7637,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="117"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -7518,10 +7653,10 @@
       <c r="C32" s="60">
         <v>45252</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="124"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="66">
         <v>21237593</v>
       </c>
@@ -7560,11 +7695,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>228062013</v>
@@ -7634,10 +7769,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="127" t="s">
+      <c r="F39" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="128"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7719,27 +7854,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7755,7 +7890,7 @@
   </sheetPr>
   <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -7792,7 +7927,7 @@
       <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="106" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -7832,7 +7967,7 @@
       <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="105" t="s">
         <v>163</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -7864,11 +7999,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -7880,8 +8015,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -7891,10 +8026,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -7904,10 +8039,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -7918,10 +8053,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -7931,10 +8066,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -7945,10 +8080,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -7961,10 +8096,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="113" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="114"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -7975,10 +8110,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="112"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -7988,10 +8123,10 @@
       <c r="C18" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="114"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32+LK.15!F32</f>
         <v>57894202</v>
@@ -8006,10 +8141,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="111" t="s">
+      <c r="D19" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="112"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -8055,10 +8190,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="115"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -8082,10 +8217,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="117"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -8097,10 +8232,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="131" t="s">
+      <c r="D26" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -8117,10 +8252,10 @@
       <c r="C27" s="60">
         <v>45215</v>
       </c>
-      <c r="D27" s="132" t="s">
+      <c r="D27" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="121"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>2437987</v>
       </c>
@@ -8134,10 +8269,10 @@
       <c r="C28" s="60">
         <v>45238</v>
       </c>
-      <c r="D28" s="132" t="s">
+      <c r="D28" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="121"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59">
         <v>23000000</v>
       </c>
@@ -8152,10 +8287,10 @@
       <c r="C29" s="60">
         <v>45257</v>
       </c>
-      <c r="D29" s="132" t="s">
+      <c r="D29" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="121"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="59">
         <v>4234013</v>
       </c>
@@ -8183,10 +8318,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="117"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -8199,10 +8334,10 @@
       <c r="C32" s="60">
         <v>44928</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="124"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="66">
         <v>29672000</v>
       </c>
@@ -8241,11 +8376,11 @@
     </row>
     <row r="35" spans="2:12" ht="21" thickTop="1">
       <c r="B35" s="5"/>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>257734013</v>
@@ -8315,10 +8450,683 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="127" t="s">
+      <c r="F39" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="128"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:12" ht="6" customHeight="1">
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+    </row>
+    <row r="41" spans="2:12" ht="18.600000000000001">
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+    </row>
+    <row r="42" spans="2:12" ht="19.8">
+      <c r="C42" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="91"/>
+    </row>
+    <row r="43" spans="2:12" ht="19.8">
+      <c r="C43" s="92"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="97">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="19.8">
+      <c r="C44" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94">
+        <v>89800000000</v>
+      </c>
+      <c r="F44" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="99"/>
+    </row>
+    <row r="45" spans="2:12" ht="19.8">
+      <c r="C45" s="100">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="94">
+        <f>E44*C45</f>
+        <v>898000000</v>
+      </c>
+      <c r="F45" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="101"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.600000000000001">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001">
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C76118-850F-4E77-8067-76509B3A5791}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:L47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="6" customHeight="1" thickBot="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="21">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <f>+E45</f>
+        <v>898000000</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" ht="39.6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14">
+        <f>F35</f>
+        <v>290553787</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" ht="21">
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="14">
+        <f>G4-G5</f>
+        <v>607446213</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="21">
+      <c r="B7" s="5"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19">
+        <f>G6/G4</f>
+        <v>0.67644344432071268</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" ht="6" customHeight="1">
+      <c r="B8" s="5"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.399999999999999">
+      <c r="B9" s="5"/>
+      <c r="C9" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" ht="7.8" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="19.8" customHeight="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="129"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.399999999999999">
+      <c r="B12" s="5"/>
+      <c r="C12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="29">
+        <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
+        <v>34527740</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.399999999999999">
+      <c r="B13" s="5"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="120"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.399999999999999">
+      <c r="B14" s="5"/>
+      <c r="C14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="118"/>
+      <c r="F14" s="34">
+        <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
+        <v>48581488</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.399999999999999">
+      <c r="B15" s="5"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="120"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="10"/>
+      <c r="L15" s="1">
+        <v>21324420</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="20.399999999999999">
+      <c r="B16" s="5"/>
+      <c r="C16" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="118"/>
+      <c r="F16" s="34">
+        <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
+        <v>87058583</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.399999999999999">
+      <c r="B17" s="5"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="120"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.399999999999999">
+      <c r="B18" s="5"/>
+      <c r="C18" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="118"/>
+      <c r="F18" s="34">
+        <f>+LK.13!F30+LK.14!F32+LK.15!F32+LK.16!F32</f>
+        <v>87566202</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="10"/>
+      <c r="L18" s="1">
+        <f>163000000+22500000+25000000+43000000</f>
+        <v>253500000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.399999999999999">
+      <c r="B19" s="5"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="10"/>
+      <c r="L19" s="1">
+        <v>1687242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="5.4" customHeight="1" thickBot="1">
+      <c r="B20" s="5"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" ht="21.6" thickTop="1" thickBot="1">
+      <c r="B21" s="5"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="44">
+        <f>SUM(F12:F19)</f>
+        <v>257734013</v>
+      </c>
+      <c r="G21" s="45">
+        <f>G4-F21</f>
+        <v>640265987</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" ht="5.4" customHeight="1" thickTop="1">
+      <c r="B22" s="5"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" ht="21">
+      <c r="B23" s="5"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="122"/>
+      <c r="F23" s="53">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="10"/>
+      <c r="L23" s="1">
+        <v>5472260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="6" customHeight="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.399999999999999">
+      <c r="B25" s="5"/>
+      <c r="C25" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="20.399999999999999">
+      <c r="B26" s="5"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="125"/>
+      <c r="F26" s="58">
+        <v>0</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="L26" s="1">
+        <v>7905860</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="19.8" customHeight="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="60">
+        <v>45257</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="108"/>
+      <c r="F27" s="59">
+        <v>23765987</v>
+      </c>
+      <c r="G27" s="59">
+        <f>28000000-F27-4234013</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.8" customHeight="1">
+      <c r="B28" s="5"/>
+      <c r="C28" s="60">
+        <v>45279</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="59">
+        <v>9053787</v>
+      </c>
+      <c r="G28" s="59">
+        <f>22000000-F28</f>
+        <v>12946213</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.8">
+      <c r="B29" s="5"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="10"/>
+      <c r="L29" s="102">
+        <v>8756360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="7.8" customHeight="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="10"/>
+      <c r="L30" s="102"/>
+    </row>
+    <row r="31" spans="2:12" ht="19.2" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="10"/>
+      <c r="L31" s="102">
+        <v>14509106.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="21">
+      <c r="B32" s="5"/>
+      <c r="C32" s="60">
+        <v>44945</v>
+      </c>
+      <c r="D32" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="112"/>
+      <c r="F32" s="66">
+        <v>32819774</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="10"/>
+      <c r="L32" s="102">
+        <v>16890772</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="21">
+      <c r="B33" s="5"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="71">
+        <f>F32-SUM(F26:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="72"/>
+      <c r="H33" s="10"/>
+      <c r="L33" s="103">
+        <f>F29+G29+3866346.75</f>
+        <v>3866346.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="10.199999999999999" customHeight="1" thickBot="1">
+      <c r="B34" s="5"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:12" ht="21" thickTop="1">
+      <c r="B35" s="5"/>
+      <c r="C35" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="75">
+        <f>F21+F32</f>
+        <v>290553787</v>
+      </c>
+      <c r="G35" s="76">
+        <f>G4-F35</f>
+        <v>607446213</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="L35" s="59">
+        <v>7380255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="20.399999999999999">
+      <c r="B36" s="5"/>
+      <c r="C36" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:12" ht="21">
+      <c r="B37" s="5"/>
+      <c r="C37" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="83">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="10"/>
+      <c r="L37" s="1">
+        <v>6582910</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="20.399999999999999">
+      <c r="B38" s="5"/>
+      <c r="C38" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:12" ht="20.399999999999999">
+      <c r="B39" s="5"/>
+      <c r="C39" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="116"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -8545,11 +9353,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8561,8 +9369,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8572,10 +9380,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8585,10 +9393,10 @@
       <c r="C12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26</f>
         <v>8060090</v>
@@ -8599,10 +9407,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -8610,8 +9418,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -8619,8 +9427,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -8667,10 +9475,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -8691,10 +9499,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -8706,10 +9514,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -8727,10 +9535,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>1939910</v>
       </c>
@@ -8744,10 +9552,10 @@
       <c r="C24" s="60">
         <v>44991</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>2619745</v>
       </c>
@@ -8775,10 +9583,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -8791,10 +9599,10 @@
       <c r="C27" s="60">
         <v>44934</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>4559655</v>
       </c>
@@ -8833,11 +9641,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>12619745</v>
@@ -8904,10 +9712,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -8989,22 +9797,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9129,11 +9937,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9145,8 +9953,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9156,10 +9964,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9169,10 +9977,10 @@
       <c r="C12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27</f>
         <v>12619745</v>
@@ -9183,10 +9991,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -9194,8 +10002,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -9203,8 +10011,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -9251,10 +10059,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -9275,10 +10083,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -9290,10 +10098,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -9311,10 +10119,10 @@
       <c r="C23" s="60">
         <v>44991</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>7380255</v>
       </c>
@@ -9328,10 +10136,10 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>3417090</v>
       </c>
@@ -9359,10 +10167,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -9375,10 +10183,10 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>10797345</v>
       </c>
@@ -9417,11 +10225,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>23417090</v>
@@ -9491,10 +10299,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -9576,22 +10384,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9716,11 +10524,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9732,8 +10540,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9743,10 +10551,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9756,10 +10564,10 @@
       <c r="C12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27</f>
         <v>23417090</v>
@@ -9770,10 +10578,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -9781,8 +10589,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -9790,8 +10598,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -9838,10 +10646,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -9865,10 +10673,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -9880,10 +10688,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -9901,10 +10709,10 @@
       <c r="C23" s="60">
         <v>45001</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>6582910</v>
       </c>
@@ -9918,10 +10726,10 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>4527740</v>
       </c>
@@ -9949,10 +10757,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -9965,10 +10773,10 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>11110650</v>
       </c>
@@ -10007,11 +10815,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>34527740</v>
@@ -10081,10 +10889,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10166,22 +10974,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -10306,11 +11114,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -10322,8 +11130,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -10333,10 +11141,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -10346,10 +11154,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -10360,10 +11168,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10371,8 +11179,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -10380,8 +11188,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -10428,10 +11236,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -10455,10 +11263,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -10470,10 +11278,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -10490,10 +11298,10 @@
       <c r="C23" s="60">
         <v>45016</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>5472260</v>
       </c>
@@ -10507,10 +11315,10 @@
       <c r="C24" s="60">
         <v>45035</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>2094140</v>
       </c>
@@ -10538,10 +11346,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -10554,10 +11362,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>7566400</v>
       </c>
@@ -10596,11 +11404,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>42094140</v>
@@ -10670,10 +11478,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10755,22 +11563,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -10895,11 +11703,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -10911,8 +11719,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -10922,10 +11730,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -10935,10 +11743,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -10949,10 +11757,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10962,10 +11770,10 @@
       <c r="C14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27</f>
         <v>7566400</v>
@@ -10976,10 +11784,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11026,10 +11834,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11053,10 +11861,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11068,10 +11876,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11088,10 +11896,10 @@
       <c r="C23" s="60">
         <v>45035</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>7905860</v>
       </c>
@@ -11105,10 +11913,10 @@
       <c r="C24" s="60">
         <v>45051</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>1243640</v>
       </c>
@@ -11136,10 +11944,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11152,10 +11960,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>9149500</v>
       </c>
@@ -11194,11 +12002,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>51243640</v>
@@ -11268,10 +12076,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -11353,22 +12161,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11493,11 +12301,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11509,8 +12317,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11520,10 +12328,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11533,10 +12341,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11547,10 +12355,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11560,10 +12368,10 @@
       <c r="C14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27</f>
         <v>16715900</v>
@@ -11574,10 +12382,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11624,10 +12432,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11651,10 +12459,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11666,10 +12474,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11686,10 +12494,10 @@
       <c r="C23" s="60">
         <v>45051</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>8756360</v>
       </c>
@@ -11704,10 +12512,10 @@
       <c r="C24" s="60">
         <v>45067</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>2485840</v>
       </c>
@@ -11735,10 +12543,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11751,10 +12559,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>11242200</v>
       </c>
@@ -11793,11 +12601,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>62485840</v>
@@ -11867,10 +12675,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -11952,22 +12760,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12092,11 +12900,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12108,8 +12916,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12119,10 +12927,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12132,10 +12940,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12146,10 +12954,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12159,10 +12967,10 @@
       <c r="C14" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27</f>
         <v>27958100</v>
@@ -12173,10 +12981,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -12223,10 +13031,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -12250,10 +13058,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -12265,10 +13073,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -12285,10 +13093,10 @@
       <c r="C23" s="60">
         <v>45067</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>17514160</v>
       </c>
@@ -12302,10 +13110,10 @@
       <c r="C24" s="60">
         <v>45090</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>3109228</v>
       </c>
@@ -12333,10 +13141,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -12349,10 +13157,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>20623388</v>
       </c>
@@ -12391,11 +13199,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>83109228</v>
@@ -12465,10 +13273,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12550,22 +13358,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12690,11 +13498,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12706,8 +13514,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12717,10 +13525,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12730,10 +13538,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12744,10 +13552,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="112"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12757,10 +13565,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="114"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -12771,10 +13579,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -12820,10 +13628,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="108" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -12847,10 +13655,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="116" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -12862,10 +13670,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="119"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -12882,10 +13690,10 @@
       <c r="C23" s="60">
         <v>45090</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>14080598</v>
       </c>
@@ -12898,8 +13706,8 @@
     <row r="24" spans="2:12" ht="19.8">
       <c r="B24" s="5"/>
       <c r="C24" s="60"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="10"/>
@@ -12922,10 +13730,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="117"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -12938,10 +13746,10 @@
       <c r="C27" s="60">
         <v>45132</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="124"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>14080598</v>
       </c>
@@ -12980,11 +13788,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="125" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>97189826</v>
@@ -13054,10 +13862,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="127" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="128"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13139,22 +13947,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>

--- a/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
+++ b/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ssi\Rekap LK\SSI-I.23.001 PCC Adaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D01007-BA0E-4352-9EEF-3DC47083029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336EC61-75C4-4A99-8A34-8414375A9391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3042,6 +3042,51 @@
     <xf numFmtId="4" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3049,9 +3094,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3071,48 +3113,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3528,11 +3528,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3544,8 +3544,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -3555,10 +3555,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -3566,8 +3566,8 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -3575,8 +3575,8 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -3584,8 +3584,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -3593,8 +3593,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -3641,10 +3641,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -3680,10 +3680,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -3701,10 +3701,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>8060090</v>
       </c>
@@ -3732,10 +3732,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
@@ -3748,10 +3748,10 @@
       <c r="C26" s="60">
         <v>44934</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="112"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="66">
         <v>8060090</v>
       </c>
@@ -3790,11 +3790,11 @@
     </row>
     <row r="29" spans="2:12" ht="20.399999999999999">
       <c r="B29" s="5"/>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="75">
         <f>F17+F26</f>
         <v>8060090</v>
@@ -3861,10 +3861,10 @@
       <c r="E33" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="115" t="s">
+      <c r="F33" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="130"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" ht="6" customHeight="1">
@@ -3946,21 +3946,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -4085,11 +4085,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4101,8 +4101,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4112,10 +4112,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4125,10 +4125,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4139,10 +4139,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4152,10 +4152,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4166,10 +4166,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4179,10 +4179,10 @@
       <c r="C16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27</f>
         <v>14080598</v>
@@ -4193,10 +4193,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4242,10 +4242,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4269,10 +4269,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4284,10 +4284,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4304,10 +4304,10 @@
       <c r="C25" s="60">
         <v>45090</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>2810174</v>
       </c>
@@ -4321,10 +4321,10 @@
       <c r="C26" s="60">
         <v>45103</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>18312758</v>
       </c>
@@ -4352,10 +4352,10 @@
       <c r="C28" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="110"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="56"/>
       <c r="G28" s="65"/>
       <c r="H28" s="10"/>
@@ -4368,10 +4368,10 @@
       <c r="C29" s="60">
         <v>45133</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="66">
         <v>21122932</v>
       </c>
@@ -4410,11 +4410,11 @@
     </row>
     <row r="32" spans="2:12" ht="20.399999999999999">
       <c r="B32" s="5"/>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
       <c r="F32" s="75">
         <f>F19+F29</f>
         <v>118312758</v>
@@ -4484,10 +4484,10 @@
       <c r="E36" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="116"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:12" ht="6" customHeight="1">
@@ -4569,16 +4569,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F36:G36"/>
@@ -4587,6 +4577,16 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -4711,11 +4711,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4727,8 +4727,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4738,10 +4738,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4751,10 +4751,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4765,10 +4765,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4778,10 +4778,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4792,10 +4792,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4805,10 +4805,10 @@
       <c r="C16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29</f>
         <v>35203530</v>
@@ -4819,10 +4819,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4868,10 +4868,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4895,10 +4895,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4910,10 +4910,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4930,10 +4930,10 @@
       <c r="C25" s="60">
         <v>45103</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>1687242</v>
       </c>
@@ -4947,10 +4947,10 @@
       <c r="C26" s="60">
         <v>45128</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>6000000</v>
       </c>
@@ -4964,10 +4964,10 @@
       <c r="C27" s="60">
         <v>45145</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>17000000</v>
       </c>
@@ -4982,10 +4982,10 @@
       <c r="C28" s="60">
         <v>44972</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>1269039</v>
       </c>
@@ -5013,10 +5013,10 @@
       <c r="C30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="110"/>
+      <c r="E30" s="119"/>
       <c r="F30" s="56"/>
       <c r="G30" s="65"/>
       <c r="H30" s="10"/>
@@ -5029,10 +5029,10 @@
       <c r="C31" s="60">
         <v>45153</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="112"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="66">
         <v>25956281</v>
       </c>
@@ -5071,11 +5071,11 @@
     </row>
     <row r="34" spans="2:12" ht="20.399999999999999">
       <c r="B34" s="5"/>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
       <c r="F34" s="75">
         <f>F19+F31</f>
         <v>144269039</v>
@@ -5145,10 +5145,10 @@
       <c r="E38" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="116"/>
+      <c r="G38" s="130"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="6" customHeight="1">
@@ -5230,26 +5230,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -5374,11 +5374,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -5390,8 +5390,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -5401,10 +5401,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -5414,10 +5414,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -5428,10 +5428,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -5441,10 +5441,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -5455,10 +5455,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -5468,10 +5468,10 @@
       <c r="C16" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31</f>
         <v>61159811</v>
@@ -5482,10 +5482,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -5531,10 +5531,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -5558,10 +5558,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -5573,10 +5573,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="D25" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>1230961</v>
       </c>
@@ -5611,10 +5611,10 @@
       <c r="C26" s="60">
         <v>45124</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>20000000</v>
       </c>
@@ -5629,10 +5629,10 @@
       <c r="C27" s="60">
         <v>45167</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>4667811</v>
       </c>
@@ -5660,10 +5660,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -5676,10 +5676,10 @@
       <c r="C30" s="60">
         <v>45194</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="112"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="66">
         <v>25898772</v>
       </c>
@@ -5718,11 +5718,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>170167811</v>
@@ -5792,10 +5792,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="116"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -5877,16 +5877,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -5896,6 +5886,16 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -6020,11 +6020,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6036,8 +6036,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6047,10 +6047,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6060,10 +6060,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6074,10 +6074,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6087,10 +6087,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6101,10 +6101,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6114,10 +6114,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6128,10 +6128,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -6177,10 +6177,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -6204,10 +6204,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -6219,10 +6219,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="D25" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>0</v>
       </c>
@@ -6256,10 +6256,10 @@
       <c r="C26" s="60">
         <v>45167</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>15332189</v>
       </c>
@@ -6274,10 +6274,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>5840596</v>
       </c>
@@ -6305,10 +6305,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -6321,10 +6321,10 @@
       <c r="C30" s="60">
         <v>45204</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="112"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="66">
         <v>21172785</v>
       </c>
@@ -6363,11 +6363,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>191340596</v>
@@ -6437,10 +6437,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="116"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -6522,16 +6522,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -6541,6 +6531,16 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -6665,11 +6665,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6681,8 +6681,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6692,10 +6692,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6705,10 +6705,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6719,10 +6719,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6732,10 +6732,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6746,10 +6746,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6759,10 +6759,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6773,10 +6773,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -6786,10 +6786,10 @@
       <c r="C18" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30</f>
         <v>21172785</v>
@@ -6804,10 +6804,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -6853,10 +6853,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -6880,10 +6880,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -6895,10 +6895,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -6915,10 +6915,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>15483824</v>
       </c>
@@ -6931,8 +6931,8 @@
     <row r="28" spans="2:12" ht="19.8" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
       <c r="H28" s="10"/>
@@ -6940,8 +6940,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -6964,10 +6964,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -6980,10 +6980,10 @@
       <c r="C32" s="60">
         <v>45240</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>15483824</v>
       </c>
@@ -7022,11 +7022,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>206824420</v>
@@ -7096,10 +7096,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7181,27 +7181,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7326,11 +7326,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -7342,8 +7342,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -7353,10 +7353,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -7366,10 +7366,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -7380,10 +7380,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -7393,10 +7393,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -7407,10 +7407,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -7423,10 +7423,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -7437,10 +7437,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -7450,10 +7450,10 @@
       <c r="C18" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32</f>
         <v>36656609</v>
@@ -7468,10 +7468,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -7517,10 +7517,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -7544,10 +7544,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -7559,10 +7559,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="D27" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>3675580</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="D28" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>17562013</v>
       </c>
@@ -7613,8 +7613,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -7637,10 +7637,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -7653,10 +7653,10 @@
       <c r="C32" s="60">
         <v>45252</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>21237593</v>
       </c>
@@ -7695,11 +7695,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>228062013</v>
@@ -7769,10 +7769,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7854,27 +7854,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7999,11 +7999,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8015,8 +8015,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8026,10 +8026,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8039,10 +8039,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -8053,10 +8053,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -8066,10 +8066,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -8080,10 +8080,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -8096,10 +8096,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -8110,10 +8110,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -8123,10 +8123,10 @@
       <c r="C18" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32+LK.15!F32</f>
         <v>57894202</v>
@@ -8141,10 +8141,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -8190,10 +8190,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -8217,10 +8217,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="D26" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="D27" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>2437987</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="D28" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>23000000</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="D29" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59">
         <v>4234013</v>
       </c>
@@ -8318,10 +8318,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -8337,7 +8337,7 @@
       <c r="D32" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>29672000</v>
       </c>
@@ -8376,11 +8376,11 @@
     </row>
     <row r="35" spans="2:12" ht="21" thickTop="1">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>257734013</v>
@@ -8450,10 +8450,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -8535,6 +8535,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -8547,15 +8556,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -8571,8 +8571,8 @@
   </sheetPr>
   <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -8680,11 +8680,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8696,8 +8696,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8707,10 +8707,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8720,10 +8720,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -8734,10 +8734,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -8747,10 +8747,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -8761,10 +8761,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -8777,10 +8777,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -8791,10 +8791,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -8804,10 +8804,10 @@
       <c r="C18" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32+LK.15!F32+LK.16!F32</f>
         <v>87566202</v>
@@ -8822,10 +8822,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -8871,10 +8871,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -8898,10 +8898,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -8913,10 +8913,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="D27" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>23765987</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="D28" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>9053787</v>
       </c>
@@ -8968,7 +8968,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
       <c r="D29" s="135"/>
-      <c r="E29" s="108"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -8991,10 +8991,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -9010,7 +9010,7 @@
       <c r="D32" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>32819774</v>
       </c>
@@ -9049,11 +9049,11 @@
     </row>
     <row r="35" spans="2:12" ht="21" thickTop="1">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>290553787</v>
@@ -9123,11 +9123,14 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
+      <c r="L39" s="1">
+        <v>290553787</v>
+      </c>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
       <c r="B40" s="88"/>
@@ -9208,6 +9211,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F39:G39"/>
@@ -9217,18 +9232,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9353,11 +9356,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9369,8 +9372,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9380,10 +9383,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9393,10 +9396,10 @@
       <c r="C12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26</f>
         <v>8060090</v>
@@ -9407,10 +9410,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -9418,8 +9421,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -9427,8 +9430,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -9475,10 +9478,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -9499,10 +9502,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -9514,10 +9517,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -9535,10 +9538,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>1939910</v>
       </c>
@@ -9552,10 +9555,10 @@
       <c r="C24" s="60">
         <v>44991</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>2619745</v>
       </c>
@@ -9583,10 +9586,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -9599,10 +9602,10 @@
       <c r="C27" s="60">
         <v>44934</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>4559655</v>
       </c>
@@ -9641,11 +9644,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>12619745</v>
@@ -9712,10 +9715,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -9797,22 +9800,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9937,11 +9940,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9953,8 +9956,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9964,10 +9967,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9977,10 +9980,10 @@
       <c r="C12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27</f>
         <v>12619745</v>
@@ -9991,10 +9994,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10002,8 +10005,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -10011,8 +10014,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -10059,10 +10062,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -10083,10 +10086,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -10098,10 +10101,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -10119,10 +10122,10 @@
       <c r="C23" s="60">
         <v>44991</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>7380255</v>
       </c>
@@ -10136,10 +10139,10 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>3417090</v>
       </c>
@@ -10167,10 +10170,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -10183,10 +10186,10 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>10797345</v>
       </c>
@@ -10225,11 +10228,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>23417090</v>
@@ -10299,10 +10302,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10384,22 +10387,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -10524,11 +10527,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -10540,8 +10543,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -10551,10 +10554,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -10564,10 +10567,10 @@
       <c r="C12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27</f>
         <v>23417090</v>
@@ -10578,10 +10581,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10589,8 +10592,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -10598,8 +10601,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -10646,10 +10649,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -10673,10 +10676,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -10688,10 +10691,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -10709,10 +10712,10 @@
       <c r="C23" s="60">
         <v>45001</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>6582910</v>
       </c>
@@ -10726,10 +10729,10 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>4527740</v>
       </c>
@@ -10757,10 +10760,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -10773,10 +10776,10 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>11110650</v>
       </c>
@@ -10815,11 +10818,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>34527740</v>
@@ -10889,10 +10892,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10974,22 +10977,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11114,11 +11117,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11130,8 +11133,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11141,10 +11144,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11154,10 +11157,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11168,10 +11171,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11179,8 +11182,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -11188,8 +11191,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11236,10 +11239,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11263,10 +11266,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11278,10 +11281,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11298,10 +11301,10 @@
       <c r="C23" s="60">
         <v>45016</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>5472260</v>
       </c>
@@ -11315,10 +11318,10 @@
       <c r="C24" s="60">
         <v>45035</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>2094140</v>
       </c>
@@ -11346,10 +11349,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11362,10 +11365,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>7566400</v>
       </c>
@@ -11404,11 +11407,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>42094140</v>
@@ -11478,10 +11481,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -11563,22 +11566,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11703,11 +11706,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11719,8 +11722,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11730,10 +11733,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11743,10 +11746,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11757,10 +11760,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11770,10 +11773,10 @@
       <c r="C14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27</f>
         <v>7566400</v>
@@ -11784,10 +11787,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11834,10 +11837,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11861,10 +11864,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11876,10 +11879,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11896,10 +11899,10 @@
       <c r="C23" s="60">
         <v>45035</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>7905860</v>
       </c>
@@ -11913,10 +11916,10 @@
       <c r="C24" s="60">
         <v>45051</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>1243640</v>
       </c>
@@ -11944,10 +11947,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11960,10 +11963,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>9149500</v>
       </c>
@@ -12002,11 +12005,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>51243640</v>
@@ -12076,10 +12079,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12161,22 +12164,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12301,11 +12304,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12317,8 +12320,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12328,10 +12331,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12341,10 +12344,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12355,10 +12358,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12368,10 +12371,10 @@
       <c r="C14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27</f>
         <v>16715900</v>
@@ -12382,10 +12385,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -12432,10 +12435,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -12459,10 +12462,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -12474,10 +12477,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -12494,10 +12497,10 @@
       <c r="C23" s="60">
         <v>45051</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>8756360</v>
       </c>
@@ -12512,10 +12515,10 @@
       <c r="C24" s="60">
         <v>45067</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>2485840</v>
       </c>
@@ -12543,10 +12546,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -12559,10 +12562,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>11242200</v>
       </c>
@@ -12601,11 +12604,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>62485840</v>
@@ -12675,10 +12678,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12760,22 +12763,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12900,11 +12903,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12916,8 +12919,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12927,10 +12930,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12940,10 +12943,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12954,10 +12957,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12967,10 +12970,10 @@
       <c r="C14" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27</f>
         <v>27958100</v>
@@ -12981,10 +12984,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -13031,10 +13034,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -13058,10 +13061,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -13073,10 +13076,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -13093,10 +13096,10 @@
       <c r="C23" s="60">
         <v>45067</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>17514160</v>
       </c>
@@ -13110,10 +13113,10 @@
       <c r="C24" s="60">
         <v>45090</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>3109228</v>
       </c>
@@ -13141,10 +13144,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -13157,10 +13160,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>20623388</v>
       </c>
@@ -13199,11 +13202,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>83109228</v>
@@ -13273,10 +13276,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13358,22 +13361,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -13498,11 +13501,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -13514,8 +13517,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -13525,10 +13528,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -13538,10 +13541,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -13552,10 +13555,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -13565,10 +13568,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -13579,10 +13582,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -13628,10 +13631,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -13655,10 +13658,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -13670,10 +13673,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -13690,10 +13693,10 @@
       <c r="C23" s="60">
         <v>45090</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>14080598</v>
       </c>
@@ -13706,8 +13709,8 @@
     <row r="24" spans="2:12" ht="19.8">
       <c r="B24" s="5"/>
       <c r="C24" s="60"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="10"/>
@@ -13730,10 +13733,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -13746,10 +13749,10 @@
       <c r="C27" s="60">
         <v>45132</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>14080598</v>
       </c>
@@ -13788,11 +13791,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>97189826</v>
@@ -13862,10 +13865,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13947,22 +13950,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>

--- a/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
+++ b/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ssi\Rekap LK\SSI-I.23.001 PCC Adaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8336EC61-75C4-4A99-8A34-8414375A9391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BEEAC1-17F7-436F-95E6-8F0A8BBC76C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LK.01" sheetId="32" r:id="rId1"/>
@@ -3042,51 +3042,6 @@
     <xf numFmtId="4" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3094,6 +3049,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3113,6 +3071,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3419,7 +3419,7 @@
   </sheetPr>
   <dimension ref="B3:L41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -3528,11 +3528,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3544,8 +3544,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -3555,10 +3555,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -3566,8 +3566,8 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -3575,8 +3575,8 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -3584,8 +3584,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -3593,8 +3593,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -3641,10 +3641,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -3680,10 +3680,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -3701,10 +3701,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>8060090</v>
       </c>
@@ -3732,10 +3732,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="124" t="s">
+      <c r="D25" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="119"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
@@ -3748,10 +3748,10 @@
       <c r="C26" s="60">
         <v>44934</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="126"/>
+      <c r="E26" s="112"/>
       <c r="F26" s="66">
         <v>8060090</v>
       </c>
@@ -3790,11 +3790,11 @@
     </row>
     <row r="29" spans="2:12" ht="20.399999999999999">
       <c r="B29" s="5"/>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
       <c r="F29" s="75">
         <f>F17+F26</f>
         <v>8060090</v>
@@ -3861,10 +3861,10 @@
       <c r="E33" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="130"/>
+      <c r="G33" s="116"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" ht="6" customHeight="1">
@@ -3946,21 +3946,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -3976,7 +3976,7 @@
   </sheetPr>
   <dimension ref="B3:L44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4085,11 +4085,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4101,8 +4101,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4112,10 +4112,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4125,10 +4125,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4139,10 +4139,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4152,10 +4152,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4166,10 +4166,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4179,10 +4179,10 @@
       <c r="C16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27</f>
         <v>14080598</v>
@@ -4193,10 +4193,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4242,10 +4242,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4269,10 +4269,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4284,10 +4284,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4304,10 +4304,10 @@
       <c r="C25" s="60">
         <v>45090</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="123"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>2810174</v>
       </c>
@@ -4321,10 +4321,10 @@
       <c r="C26" s="60">
         <v>45103</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="107" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="123"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>18312758</v>
       </c>
@@ -4352,10 +4352,10 @@
       <c r="C28" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D28" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="119"/>
+      <c r="E28" s="110"/>
       <c r="F28" s="56"/>
       <c r="G28" s="65"/>
       <c r="H28" s="10"/>
@@ -4368,10 +4368,10 @@
       <c r="C29" s="60">
         <v>45133</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="D29" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="126"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="66">
         <v>21122932</v>
       </c>
@@ -4410,11 +4410,11 @@
     </row>
     <row r="32" spans="2:12" ht="20.399999999999999">
       <c r="B32" s="5"/>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="75">
         <f>F19+F29</f>
         <v>118312758</v>
@@ -4484,10 +4484,10 @@
       <c r="E36" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="129" t="s">
+      <c r="F36" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="130"/>
+      <c r="G36" s="116"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:12" ht="6" customHeight="1">
@@ -4569,6 +4569,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F36:G36"/>
@@ -4577,16 +4587,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -4602,7 +4602,7 @@
   </sheetPr>
   <dimension ref="B3:L46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -4711,11 +4711,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4727,8 +4727,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4738,10 +4738,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4751,10 +4751,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4765,10 +4765,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4778,10 +4778,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4792,10 +4792,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4805,10 +4805,10 @@
       <c r="C16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29</f>
         <v>35203530</v>
@@ -4819,10 +4819,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4868,10 +4868,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4895,10 +4895,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4910,10 +4910,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4930,10 +4930,10 @@
       <c r="C25" s="60">
         <v>45103</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="123"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>1687242</v>
       </c>
@@ -4947,10 +4947,10 @@
       <c r="C26" s="60">
         <v>45128</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="123"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>6000000</v>
       </c>
@@ -4964,10 +4964,10 @@
       <c r="C27" s="60">
         <v>45145</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>17000000</v>
       </c>
@@ -4982,10 +4982,10 @@
       <c r="C28" s="60">
         <v>44972</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="123"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59">
         <v>1269039</v>
       </c>
@@ -5013,10 +5013,10 @@
       <c r="C30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="119"/>
+      <c r="E30" s="110"/>
       <c r="F30" s="56"/>
       <c r="G30" s="65"/>
       <c r="H30" s="10"/>
@@ -5029,10 +5029,10 @@
       <c r="C31" s="60">
         <v>45153</v>
       </c>
-      <c r="D31" s="125" t="s">
+      <c r="D31" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="126"/>
+      <c r="E31" s="112"/>
       <c r="F31" s="66">
         <v>25956281</v>
       </c>
@@ -5071,11 +5071,11 @@
     </row>
     <row r="34" spans="2:12" ht="20.399999999999999">
       <c r="B34" s="5"/>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
       <c r="F34" s="75">
         <f>F19+F31</f>
         <v>144269039</v>
@@ -5145,10 +5145,10 @@
       <c r="E38" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="130"/>
+      <c r="G38" s="116"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="6" customHeight="1">
@@ -5230,26 +5230,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -5265,7 +5265,7 @@
   </sheetPr>
   <dimension ref="B3:L45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -5374,11 +5374,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -5390,8 +5390,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -5401,10 +5401,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -5414,10 +5414,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -5428,10 +5428,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -5441,10 +5441,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -5455,10 +5455,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -5468,10 +5468,10 @@
       <c r="C16" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31</f>
         <v>61159811</v>
@@ -5482,10 +5482,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -5531,10 +5531,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -5558,10 +5558,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -5573,10 +5573,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="124" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="D25" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="123"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>1230961</v>
       </c>
@@ -5611,10 +5611,10 @@
       <c r="C26" s="60">
         <v>45124</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="123"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>20000000</v>
       </c>
@@ -5629,10 +5629,10 @@
       <c r="C27" s="60">
         <v>45167</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>4667811</v>
       </c>
@@ -5660,10 +5660,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="119"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -5676,10 +5676,10 @@
       <c r="C30" s="60">
         <v>45194</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="126"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="66">
         <v>25898772</v>
       </c>
@@ -5718,11 +5718,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>170167811</v>
@@ -5792,10 +5792,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="129" t="s">
+      <c r="F37" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="130"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -5877,6 +5877,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -5886,16 +5896,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -5911,7 +5911,7 @@
   </sheetPr>
   <dimension ref="B3:L45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
@@ -6020,11 +6020,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6036,8 +6036,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6047,10 +6047,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6060,10 +6060,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6074,10 +6074,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6087,10 +6087,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6101,10 +6101,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6114,10 +6114,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6128,10 +6128,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -6177,10 +6177,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="117"/>
+      <c r="E21" s="122"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -6204,10 +6204,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="119"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -6219,10 +6219,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="121"/>
+      <c r="E24" s="125"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="D25" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="123"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="59">
         <v>0</v>
       </c>
@@ -6256,10 +6256,10 @@
       <c r="C26" s="60">
         <v>45167</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="123"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="59">
         <v>15332189</v>
       </c>
@@ -6274,10 +6274,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>5840596</v>
       </c>
@@ -6305,10 +6305,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="119"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -6321,10 +6321,10 @@
       <c r="C30" s="60">
         <v>45204</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="126"/>
+      <c r="E30" s="112"/>
       <c r="F30" s="66">
         <v>21172785</v>
       </c>
@@ -6363,11 +6363,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>191340596</v>
@@ -6437,10 +6437,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="129" t="s">
+      <c r="F37" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="130"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -6522,6 +6522,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -6531,16 +6541,6 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -6556,7 +6556,7 @@
   </sheetPr>
   <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6665,11 +6665,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6681,8 +6681,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6692,10 +6692,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6705,10 +6705,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6719,10 +6719,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6732,10 +6732,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6746,10 +6746,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6759,10 +6759,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6773,10 +6773,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -6786,10 +6786,10 @@
       <c r="C18" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="116"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="34">
         <f>+LK.13!F30</f>
         <v>21172785</v>
@@ -6804,10 +6804,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -6853,10 +6853,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -6880,10 +6880,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="119"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -6895,10 +6895,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -6915,10 +6915,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>15483824</v>
       </c>
@@ -6931,8 +6931,8 @@
     <row r="28" spans="2:12" ht="19.8" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
       <c r="H28" s="10"/>
@@ -6940,8 +6940,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -6964,10 +6964,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="119"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -6980,10 +6980,10 @@
       <c r="C32" s="60">
         <v>45240</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="126"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="66">
         <v>15483824</v>
       </c>
@@ -7022,11 +7022,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>206824420</v>
@@ -7096,10 +7096,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="129" t="s">
+      <c r="F39" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="130"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7181,27 +7181,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7217,7 +7217,7 @@
   </sheetPr>
   <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -7326,11 +7326,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -7342,8 +7342,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -7353,10 +7353,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -7366,10 +7366,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -7380,10 +7380,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -7393,10 +7393,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -7407,10 +7407,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -7423,10 +7423,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -7437,10 +7437,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -7450,10 +7450,10 @@
       <c r="C18" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="116"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32</f>
         <v>36656609</v>
@@ -7468,10 +7468,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -7517,10 +7517,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -7544,10 +7544,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="119"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -7559,10 +7559,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="D27" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>3675580</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="D28" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="123"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59">
         <v>17562013</v>
       </c>
@@ -7613,8 +7613,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="123"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -7637,10 +7637,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="119"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -7653,10 +7653,10 @@
       <c r="C32" s="60">
         <v>45252</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="126"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="66">
         <v>21237593</v>
       </c>
@@ -7695,11 +7695,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>228062013</v>
@@ -7769,10 +7769,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="129" t="s">
+      <c r="F39" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="130"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7854,27 +7854,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7890,7 +7890,7 @@
   </sheetPr>
   <dimension ref="B3:L47"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -7999,11 +7999,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8015,8 +8015,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8026,10 +8026,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8039,10 +8039,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -8053,10 +8053,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -8066,10 +8066,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -8080,10 +8080,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -8096,10 +8096,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="116"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -8110,10 +8110,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
+      <c r="D17" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="114"/>
+      <c r="E17" s="120"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -8123,10 +8123,10 @@
       <c r="C18" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="116"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32+LK.15!F32</f>
         <v>57894202</v>
@@ -8141,10 +8141,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="120"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -8190,10 +8190,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="117"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -8217,10 +8217,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="119"/>
+      <c r="E25" s="110"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="D26" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="121"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="D27" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="123"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="59">
         <v>2437987</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="D28" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="123"/>
+      <c r="E28" s="108"/>
       <c r="F28" s="59">
         <v>23000000</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="D29" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="123"/>
+      <c r="E29" s="108"/>
       <c r="F29" s="59">
         <v>4234013</v>
       </c>
@@ -8318,10 +8318,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="119"/>
+      <c r="E31" s="110"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -8337,7 +8337,7 @@
       <c r="D32" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="126"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="66">
         <v>29672000</v>
       </c>
@@ -8376,11 +8376,11 @@
     </row>
     <row r="35" spans="2:12" ht="21" thickTop="1">
       <c r="B35" s="5"/>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>257734013</v>
@@ -8450,11 +8450,687 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="129" t="s">
+      <c r="F39" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="130"/>
+      <c r="G39" s="116"/>
       <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:12" ht="6" customHeight="1">
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+    </row>
+    <row r="41" spans="2:12" ht="18.600000000000001">
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+    </row>
+    <row r="42" spans="2:12" ht="19.8">
+      <c r="C42" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="93"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="91"/>
+    </row>
+    <row r="43" spans="2:12" ht="19.8">
+      <c r="C43" s="92"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="97">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="19.8">
+      <c r="C44" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94">
+        <v>89800000000</v>
+      </c>
+      <c r="F44" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="99"/>
+    </row>
+    <row r="45" spans="2:12" ht="19.8">
+      <c r="C45" s="100">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="94">
+        <f>E44*C45</f>
+        <v>898000000</v>
+      </c>
+      <c r="F45" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="101"/>
+    </row>
+    <row r="46" spans="2:12" ht="18.600000000000001">
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+    </row>
+    <row r="47" spans="2:12" ht="18.600000000000001">
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C76118-850F-4E77-8067-76509B3A5791}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:L47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="6" customHeight="1" thickBot="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" ht="21">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9">
+        <f>+E45</f>
+        <v>898000000</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:12" ht="39.6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14">
+        <f>F35</f>
+        <v>290553787</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" ht="21">
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="14">
+        <f>G4-G5</f>
+        <v>607446213</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="21">
+      <c r="B7" s="5"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="19">
+        <f>G6/G4</f>
+        <v>0.67644344432071268</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" ht="6" customHeight="1">
+      <c r="B8" s="5"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.399999999999999">
+      <c r="B9" s="5"/>
+      <c r="C9" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="2:12" ht="7.8" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" ht="19.8" customHeight="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="129"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.399999999999999">
+      <c r="B12" s="5"/>
+      <c r="C12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="29">
+        <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
+        <v>34527740</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.399999999999999">
+      <c r="B13" s="5"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="120"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.399999999999999">
+      <c r="B14" s="5"/>
+      <c r="C14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="118"/>
+      <c r="F14" s="34">
+        <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
+        <v>48581488</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.399999999999999">
+      <c r="B15" s="5"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="120"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="10"/>
+      <c r="L15" s="1">
+        <v>21324420</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="20.399999999999999">
+      <c r="B16" s="5"/>
+      <c r="C16" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="118"/>
+      <c r="F16" s="34">
+        <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
+        <v>87058583</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.399999999999999">
+      <c r="B17" s="5"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="119" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="120"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.399999999999999">
+      <c r="B18" s="5"/>
+      <c r="C18" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="118"/>
+      <c r="F18" s="34">
+        <f>+LK.13!F30+LK.14!F32+LK.15!F32+LK.16!F32</f>
+        <v>87566202</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="10"/>
+      <c r="L18" s="1">
+        <f>163000000+22500000+25000000+43000000</f>
+        <v>253500000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="20.399999999999999">
+      <c r="B19" s="5"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="120"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="10"/>
+      <c r="L19" s="1">
+        <v>1687242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="5.4" customHeight="1" thickBot="1">
+      <c r="B20" s="5"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:12" ht="21.6" thickTop="1" thickBot="1">
+      <c r="B21" s="5"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="44">
+        <f>SUM(F12:F19)</f>
+        <v>257734013</v>
+      </c>
+      <c r="G21" s="45">
+        <f>G4-F21</f>
+        <v>640265987</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:12" ht="5.4" customHeight="1" thickTop="1">
+      <c r="B22" s="5"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" ht="21">
+      <c r="B23" s="5"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="122"/>
+      <c r="F23" s="53">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="10"/>
+      <c r="L23" s="1">
+        <v>5472260</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="6" customHeight="1">
+      <c r="B24" s="5"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:12" ht="20.399999999999999">
+      <c r="B25" s="5"/>
+      <c r="C25" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="110"/>
+      <c r="F25" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:12" ht="20.399999999999999">
+      <c r="B26" s="5"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="125"/>
+      <c r="F26" s="58">
+        <v>0</v>
+      </c>
+      <c r="G26" s="59">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="L26" s="1">
+        <v>7905860</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="19.8" customHeight="1">
+      <c r="B27" s="5"/>
+      <c r="C27" s="60">
+        <v>45257</v>
+      </c>
+      <c r="D27" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="108"/>
+      <c r="F27" s="59">
+        <v>23765987</v>
+      </c>
+      <c r="G27" s="59">
+        <f>28000000-F27-4234013</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.8" customHeight="1">
+      <c r="B28" s="5"/>
+      <c r="C28" s="60">
+        <v>45279</v>
+      </c>
+      <c r="D28" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="59">
+        <v>9053787</v>
+      </c>
+      <c r="G28" s="59">
+        <f>22000000-F28</f>
+        <v>12946213</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.8">
+      <c r="B29" s="5"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="10"/>
+      <c r="L29" s="102">
+        <v>8756360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="7.8" customHeight="1">
+      <c r="B30" s="5"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="10"/>
+      <c r="L30" s="102"/>
+    </row>
+    <row r="31" spans="2:12" ht="19.2" customHeight="1">
+      <c r="B31" s="5"/>
+      <c r="C31" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="110"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="10"/>
+      <c r="L31" s="102">
+        <v>14509106.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="21">
+      <c r="B32" s="5"/>
+      <c r="C32" s="60">
+        <v>44945</v>
+      </c>
+      <c r="D32" s="133" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="112"/>
+      <c r="F32" s="66">
+        <v>32819774</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="10"/>
+      <c r="L32" s="102">
+        <v>16890772</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="21">
+      <c r="B33" s="5"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="71">
+        <f>F32-SUM(F26:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="72"/>
+      <c r="H33" s="10"/>
+      <c r="L33" s="103">
+        <f>F29+G29+3866346.75</f>
+        <v>3866346.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="10.199999999999999" customHeight="1" thickBot="1">
+      <c r="B34" s="5"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:12" ht="21" thickTop="1">
+      <c r="B35" s="5"/>
+      <c r="C35" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="75">
+        <f>F21+F32</f>
+        <v>290553787</v>
+      </c>
+      <c r="G35" s="76">
+        <f>G4-F35</f>
+        <v>607446213</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="L35" s="59">
+        <v>7380255</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="20.399999999999999">
+      <c r="B36" s="5"/>
+      <c r="C36" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:12" ht="21">
+      <c r="B37" s="5"/>
+      <c r="C37" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="83">
+        <f>F33</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="80"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="10"/>
+      <c r="L37" s="1">
+        <v>6582910</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="20.399999999999999">
+      <c r="B38" s="5"/>
+      <c r="C38" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:12" ht="20.399999999999999">
+      <c r="B39" s="5"/>
+      <c r="C39" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="116"/>
+      <c r="H39" s="10"/>
+      <c r="L39" s="1">
+        <v>290553787</v>
+      </c>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
       <c r="B40" s="88"/>
@@ -8564,15 +9240,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C76118-850F-4E77-8067-76509B3A5791}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:L47"/>
+  <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -8584,14 +9260,14 @@
     <col min="5" max="5" width="75" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1" style="1" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" style="1"/>
     <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.21875" style="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="6" customHeight="1" thickBot="1">
+    <row r="3" spans="2:12" ht="6" customHeight="1">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8608,14 +9284,14 @@
       <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="106" t="s">
-        <v>167</v>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="9">
-        <f>+E45</f>
+        <f>+E40</f>
         <v>898000000</v>
       </c>
       <c r="H4" s="10"/>
@@ -8635,8 +9311,8 @@
         <v>6</v>
       </c>
       <c r="G5" s="14">
-        <f>F35</f>
-        <v>290553787</v>
+        <f>F30</f>
+        <v>12619745</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -8648,15 +9324,15 @@
       <c r="D6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="105" t="s">
-        <v>168</v>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="14">
         <f>G4-G5</f>
-        <v>607446213</v>
+        <v>885380255</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -8670,7 +9346,7 @@
       </c>
       <c r="G7" s="19">
         <f>G6/G4</f>
-        <v>0.67644344432071268</v>
+        <v>0.98594683184855236</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -8680,11 +9356,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8696,8 +9372,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8707,10 +9383,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8718,15 +9394,15 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="112"/>
+        <v>42</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
-        <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
-        <v>34527740</v>
+        <f>LK.01!F26</f>
+        <v>8060090</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -8734,484 +9410,396 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="114"/>
+      <c r="D13" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
-      <c r="C14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="115" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="34">
-        <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
-        <v>48581488</v>
-      </c>
-      <c r="G14" s="35"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="114"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="35"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="10"/>
       <c r="L15" s="1">
-        <v>21324420</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="20.399999999999999">
+        <f>4625500+3866346.75</f>
+        <v>8491846.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="5.4" customHeight="1">
       <c r="B16" s="5"/>
-      <c r="C16" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="115" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="34">
-        <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
-        <v>87058583</v>
-      </c>
-      <c r="G16" s="35"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="113" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="114"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="44">
+        <f>SUM(F12:F15)</f>
+        <v>8060090</v>
+      </c>
+      <c r="G17" s="45">
+        <f>G4-F17</f>
+        <v>889939910</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="2:12" ht="20.399999999999999">
+    <row r="18" spans="2:12" ht="5.4" customHeight="1">
       <c r="B18" s="5"/>
-      <c r="C18" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" s="115" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="34">
-        <f>+LK.13!F30+LK.14!F32+LK.15!F32+LK.16!F32</f>
-        <v>87566202</v>
-      </c>
-      <c r="G18" s="36"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="10"/>
-      <c r="L18" s="1">
-        <f>163000000+22500000+25000000+43000000</f>
-        <v>253500000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="20.399999999999999">
+    </row>
+    <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="113" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="122"/>
+      <c r="F19" s="53">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54"/>
       <c r="H19" s="10"/>
-      <c r="L19" s="1">
-        <v>1687242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="5.4" customHeight="1" thickBot="1">
+    </row>
+    <row r="20" spans="2:12" ht="6" customHeight="1">
       <c r="B20" s="5"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:12" ht="21.6" thickTop="1" thickBot="1">
+    <row r="21" spans="2:12" ht="20.399999999999999">
       <c r="B21" s="5"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="44">
-        <f>SUM(F12:F19)</f>
-        <v>257734013</v>
-      </c>
-      <c r="G21" s="45">
-        <f>G4-F21</f>
-        <v>640265987</v>
+      <c r="C21" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="110"/>
+      <c r="F21" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>21</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:12" ht="5.4" customHeight="1" thickTop="1">
+    <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="125"/>
+      <c r="F22" s="58">
+        <v>0</v>
+      </c>
+      <c r="G22" s="59">
+        <v>0</v>
+      </c>
       <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:12" ht="21">
+      <c r="L22" s="1">
+        <f>192500000+13000000</f>
+        <v>205500000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="19.8">
       <c r="B23" s="5"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="53">
+      <c r="C23" s="60">
+        <v>44981</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="108"/>
+      <c r="F23" s="59">
+        <v>1939910</v>
+      </c>
+      <c r="G23" s="59">
         <v>0</v>
       </c>
-      <c r="G23" s="54"/>
       <c r="H23" s="10"/>
-      <c r="L23" s="1">
-        <v>5472260</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="6" customHeight="1">
+    </row>
+    <row r="24" spans="2:12" ht="19.8">
       <c r="B24" s="5"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+      <c r="C24" s="60">
+        <v>44991</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="108"/>
+      <c r="F24" s="59">
+        <v>2619745</v>
+      </c>
+      <c r="G24" s="59">
+        <f>10000000-F24</f>
+        <v>7380255</v>
+      </c>
       <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:12" ht="20.399999999999999">
+      <c r="L24" s="102">
+        <v>7133653.25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="7.8" customHeight="1">
       <c r="B25" s="5"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="10"/>
+      <c r="L25" s="102"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.2" customHeight="1">
+      <c r="B26" s="5"/>
+      <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:12" ht="20.399999999999999">
-      <c r="B26" s="5"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="120" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="58">
-        <v>0</v>
-      </c>
-      <c r="G26" s="59">
-        <v>0</v>
-      </c>
+      <c r="D26" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="110"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="10"/>
-      <c r="L26" s="1">
-        <v>7905860</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="19.8" customHeight="1">
+      <c r="L26" s="102">
+        <v>14509106.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="21">
       <c r="B27" s="5"/>
       <c r="C27" s="60">
-        <v>45257</v>
-      </c>
-      <c r="D27" s="135" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="123"/>
-      <c r="F27" s="59">
-        <v>23765987</v>
-      </c>
-      <c r="G27" s="59">
-        <f>28000000-F27-4234013</f>
+        <v>44934</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="112"/>
+      <c r="F27" s="66">
+        <v>4559655</v>
+      </c>
+      <c r="G27" s="67"/>
+      <c r="H27" s="10"/>
+      <c r="L27" s="102">
+        <v>14509106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="21">
+      <c r="B28" s="5"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="71">
+        <f>F27-SUM(F22:F24)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:12" ht="19.8" customHeight="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="60">
-        <v>45279</v>
-      </c>
-      <c r="D28" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="123"/>
-      <c r="F28" s="59">
-        <v>9053787</v>
-      </c>
-      <c r="G28" s="59">
-        <f>22000000-F28</f>
-        <v>12946213</v>
-      </c>
+      <c r="G28" s="72"/>
       <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:12" ht="19.8">
+      <c r="L28" s="103">
+        <f>F24+G24+3866346.75</f>
+        <v>13866346.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="10.199999999999999" customHeight="1">
       <c r="B29" s="5"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="74"/>
       <c r="H29" s="10"/>
-      <c r="L29" s="102">
-        <v>8756360</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="7.8" customHeight="1">
+    </row>
+    <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
+      <c r="C30" s="113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="75">
+        <f>F17+F27</f>
+        <v>12619745</v>
+      </c>
+      <c r="G30" s="76">
+        <f>G4-F30</f>
+        <v>885380255</v>
+      </c>
       <c r="H30" s="10"/>
-      <c r="L30" s="102"/>
-    </row>
-    <row r="31" spans="2:12" ht="19.2" customHeight="1">
+      <c r="L30" s="59">
+        <v>7380255</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="20.399999999999999">
       <c r="B31" s="5"/>
-      <c r="C31" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="65"/>
+      <c r="C31" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="10"/>
-      <c r="L31" s="102">
-        <v>14509106.75</v>
-      </c>
     </row>
     <row r="32" spans="2:12" ht="21">
       <c r="B32" s="5"/>
-      <c r="C32" s="60">
-        <v>44945</v>
-      </c>
-      <c r="D32" s="133" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="66">
-        <v>32819774</v>
-      </c>
-      <c r="G32" s="67"/>
+      <c r="C32" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="83">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="80"/>
+      <c r="G32" s="35"/>
       <c r="H32" s="10"/>
-      <c r="L32" s="102">
-        <v>16890772</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="21">
+    </row>
+    <row r="33" spans="2:8" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="71">
-        <f>F32-SUM(F26:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="72"/>
+      <c r="C33" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="80"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="10"/>
-      <c r="L33" s="103">
-        <f>F29+G29+3866346.75</f>
-        <v>3866346.75</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="10.199999999999999" customHeight="1" thickBot="1">
+    </row>
+    <row r="34" spans="2:8" ht="20.399999999999999">
       <c r="B34" s="5"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="74"/>
+      <c r="C34" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:12" ht="21" thickTop="1">
-      <c r="B35" s="5"/>
-      <c r="C35" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="75">
-        <f>F21+F32</f>
-        <v>290553787</v>
-      </c>
-      <c r="G35" s="76">
-        <f>G4-F35</f>
-        <v>607446213</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="L35" s="59">
-        <v>7380255</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="20.399999999999999">
-      <c r="B36" s="5"/>
-      <c r="C36" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:12" ht="21">
-      <c r="B37" s="5"/>
-      <c r="C37" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="83">
-        <f>F33</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="10"/>
-      <c r="L37" s="1">
-        <v>6582910</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="20.399999999999999">
-      <c r="B38" s="5"/>
-      <c r="C38" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:12" ht="20.399999999999999">
-      <c r="B39" s="5"/>
-      <c r="C39" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="10"/>
-      <c r="L39" s="1">
-        <v>290553787</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="6" customHeight="1">
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-    </row>
-    <row r="41" spans="2:12" ht="18.600000000000001">
+    <row r="35" spans="2:8" ht="6" customHeight="1">
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+    </row>
+    <row r="36" spans="2:8" ht="18.600000000000001">
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+    </row>
+    <row r="37" spans="2:8" ht="19.8">
+      <c r="C37" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="91"/>
+    </row>
+    <row r="38" spans="2:8" ht="19.8">
+      <c r="C38" s="92"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="97">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="19.8">
+      <c r="C39" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="93"/>
+      <c r="E39" s="94">
+        <v>89800000000</v>
+      </c>
+      <c r="F39" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="99"/>
+    </row>
+    <row r="40" spans="2:8" ht="19.8">
+      <c r="C40" s="100">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="93"/>
+      <c r="E40" s="94">
+        <f>E39*C40</f>
+        <v>898000000</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="101"/>
+    </row>
+    <row r="41" spans="2:8" ht="18.600000000000001">
       <c r="C41" s="91"/>
       <c r="D41" s="91"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
       <c r="G41" s="91"/>
     </row>
-    <row r="42" spans="2:12" ht="19.8">
-      <c r="C42" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="95"/>
+    <row r="42" spans="2:8" ht="18.600000000000001">
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
       <c r="G42" s="91"/>
     </row>
-    <row r="43" spans="2:12" ht="19.8">
-      <c r="C43" s="92"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="97">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="19.8">
-      <c r="C44" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="94">
-        <v>89800000000</v>
-      </c>
-      <c r="F44" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="99"/>
-    </row>
-    <row r="45" spans="2:12" ht="19.8">
-      <c r="C45" s="100">
-        <v>0.01</v>
-      </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="94">
-        <f>E44*C45</f>
-        <v>898000000</v>
-      </c>
-      <c r="F45" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G45" s="101"/>
-    </row>
-    <row r="46" spans="2:12" ht="18.600000000000001">
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-    </row>
-    <row r="47" spans="2:12" ht="18.600000000000001">
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D23:E23"/>
+  <mergeCells count="16">
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -9219,29 +9807,25 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9285,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
@@ -9312,7 +9896,7 @@
       </c>
       <c r="G5" s="14">
         <f>F30</f>
-        <v>12619745</v>
+        <v>23417090</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -9325,14 +9909,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="14">
         <f>G4-G5</f>
-        <v>885380255</v>
+        <v>874582910</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -9346,7 +9930,7 @@
       </c>
       <c r="G7" s="19">
         <f>G6/G4</f>
-        <v>0.98594683184855236</v>
+        <v>0.97392306236080173</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -9356,11 +9940,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9372,8 +9956,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9383,10 +9967,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9394,15 +9978,15 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="112"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
-        <f>LK.01!F26</f>
-        <v>8060090</v>
+        <f>LK.01!F26+LK.02!F27</f>
+        <v>12619745</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -9410,10 +9994,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="114"/>
+      <c r="D13" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -9421,8 +10005,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -9430,8 +10014,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -9458,11 +10042,11 @@
       </c>
       <c r="F17" s="44">
         <f>SUM(F12:F15)</f>
-        <v>8060090</v>
+        <v>12619745</v>
       </c>
       <c r="G17" s="45">
         <f>G4-F17</f>
-        <v>889939910</v>
+        <v>885380255</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -9478,10 +10062,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -9502,10 +10086,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -9517,10 +10101,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="121"/>
+      <c r="D22" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -9536,14 +10120,14 @@
     <row r="23" spans="2:12" ht="19.8">
       <c r="B23" s="5"/>
       <c r="C23" s="60">
-        <v>44981</v>
-      </c>
-      <c r="D23" s="122" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="123"/>
+        <v>44991</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
-        <v>1939910</v>
+        <v>7380255</v>
       </c>
       <c r="G23" s="59">
         <v>0</v>
@@ -9553,18 +10137,18 @@
     <row r="24" spans="2:12" ht="19.8">
       <c r="B24" s="5"/>
       <c r="C24" s="60">
-        <v>44991</v>
-      </c>
-      <c r="D24" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="123"/>
+        <v>45016</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
-        <v>2619745</v>
+        <v>3417090</v>
       </c>
       <c r="G24" s="59">
         <f>10000000-F24</f>
-        <v>7380255</v>
+        <v>6582910</v>
       </c>
       <c r="H24" s="10"/>
       <c r="L24" s="102">
@@ -9586,10 +10170,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -9600,14 +10184,14 @@
     <row r="27" spans="2:12" ht="21">
       <c r="B27" s="5"/>
       <c r="C27" s="60">
-        <v>44934</v>
-      </c>
-      <c r="D27" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="126"/>
+        <v>45027</v>
+      </c>
+      <c r="D27" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
-        <v>4559655</v>
+        <v>10797345</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="10"/>
@@ -9644,18 +10228,18 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
-        <v>12619745</v>
+        <v>23417090</v>
       </c>
       <c r="G30" s="76">
         <f>G4-F30</f>
-        <v>885380255</v>
+        <v>874582910</v>
       </c>
       <c r="H30" s="10"/>
       <c r="L30" s="59">
@@ -9688,6 +10272,9 @@
       <c r="F32" s="80"/>
       <c r="G32" s="35"/>
       <c r="H32" s="10"/>
+      <c r="L32" s="1">
+        <v>6582910</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="20.399999999999999">
       <c r="B33" s="5"/>
@@ -9715,10 +10302,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -9800,22 +10387,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9824,14 +10411,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -9869,7 +10456,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
@@ -9896,7 +10483,7 @@
       </c>
       <c r="G5" s="14">
         <f>F30</f>
-        <v>23417090</v>
+        <v>34527740</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -9909,14 +10496,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="14">
         <f>G4-G5</f>
-        <v>874582910</v>
+        <v>863472260</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -9930,7 +10517,7 @@
       </c>
       <c r="G7" s="19">
         <f>G6/G4</f>
-        <v>0.97392306236080173</v>
+        <v>0.96155040089086863</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -9940,11 +10527,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9956,8 +10543,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9967,10 +10554,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9978,15 +10565,15 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
-        <f>LK.01!F26+LK.02!F27</f>
-        <v>12619745</v>
+        <f>LK.01!F26+LK.02!F27+LK.03!F27</f>
+        <v>23417090</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -9994,10 +10581,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="114"/>
+      <c r="D13" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10005,8 +10592,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -10014,8 +10601,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -10042,11 +10629,11 @@
       </c>
       <c r="F17" s="44">
         <f>SUM(F12:F15)</f>
-        <v>12619745</v>
+        <v>23417090</v>
       </c>
       <c r="G17" s="45">
         <f>G4-F17</f>
-        <v>885380255</v>
+        <v>874582910</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -10062,15 +10649,18 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="10"/>
+      <c r="L19" s="1">
+        <v>5472260</v>
+      </c>
     </row>
     <row r="20" spans="2:12" ht="6" customHeight="1">
       <c r="B20" s="5"/>
@@ -10086,10 +10676,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -10101,10 +10691,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="121"/>
+      <c r="D22" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -10117,17 +10707,17 @@
         <v>205500000</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="19.8">
+    <row r="23" spans="2:12" ht="19.8" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="60">
-        <v>44991</v>
-      </c>
-      <c r="D23" s="122" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="123"/>
+        <v>45001</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
-        <v>7380255</v>
+        <v>6582910</v>
       </c>
       <c r="G23" s="59">
         <v>0</v>
@@ -10139,16 +10729,16 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="123"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
-        <v>3417090</v>
+        <v>4527740</v>
       </c>
       <c r="G24" s="59">
         <f>10000000-F24</f>
-        <v>6582910</v>
+        <v>5472260</v>
       </c>
       <c r="H24" s="10"/>
       <c r="L24" s="102">
@@ -10170,10 +10760,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -10186,12 +10776,12 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="126"/>
+      <c r="D27" s="111" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
-        <v>10797345</v>
+        <v>11110650</v>
       </c>
       <c r="G27" s="67"/>
       <c r="H27" s="10"/>
@@ -10228,18 +10818,18 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
-        <v>23417090</v>
+        <v>34527740</v>
       </c>
       <c r="G30" s="76">
         <f>G4-F30</f>
-        <v>874582910</v>
+        <v>863472260</v>
       </c>
       <c r="H30" s="10"/>
       <c r="L30" s="59">
@@ -10302,10 +10892,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10387,612 +10977,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B3:L42"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" ht="6" customHeight="1">
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="2:12" ht="21">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="9">
-        <f>+E40</f>
-        <v>898000000</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:12" ht="39.6">
-      <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="14">
-        <f>F30</f>
-        <v>34527740</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:12" ht="21">
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="14">
-        <f>G4-G5</f>
-        <v>863472260</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:12" ht="21">
-      <c r="B7" s="5"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="19">
-        <f>G6/G4</f>
-        <v>0.96155040089086863</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:12" ht="6" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.399999999999999">
-      <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="2:12" ht="7.8" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:12" ht="19.8" customHeight="1">
-      <c r="B11" s="5"/>
-      <c r="C11" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.399999999999999">
-      <c r="B12" s="5"/>
-      <c r="C12" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="29">
-        <f>LK.01!F26+LK.02!F27+LK.03!F27</f>
-        <v>23417090</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.399999999999999">
-      <c r="B13" s="5"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.399999999999999">
-      <c r="B14" s="5"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.399999999999999">
-      <c r="B15" s="5"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="10"/>
-      <c r="L15" s="1">
-        <f>4625500+3866346.75</f>
-        <v>8491846.75</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="5.4" customHeight="1">
-      <c r="B16" s="5"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.399999999999999">
-      <c r="B17" s="5"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="44">
-        <f>SUM(F12:F15)</f>
-        <v>23417090</v>
-      </c>
-      <c r="G17" s="45">
-        <f>G4-F17</f>
-        <v>874582910</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:12" ht="5.4" customHeight="1">
-      <c r="B18" s="5"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:12" ht="21">
-      <c r="B19" s="5"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="53">
-        <v>0</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="10"/>
-      <c r="L19" s="1">
-        <v>5472260</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="6" customHeight="1">
-      <c r="B20" s="5"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.399999999999999">
-      <c r="B21" s="5"/>
-      <c r="C21" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:12" ht="20.399999999999999">
-      <c r="B22" s="5"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="58">
-        <v>0</v>
-      </c>
-      <c r="G22" s="59">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="L22" s="1">
-        <f>192500000+13000000</f>
-        <v>205500000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="19.8" customHeight="1">
-      <c r="B23" s="5"/>
-      <c r="C23" s="60">
-        <v>45001</v>
-      </c>
-      <c r="D23" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="123"/>
-      <c r="F23" s="59">
-        <v>6582910</v>
-      </c>
-      <c r="G23" s="59">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:12" ht="19.8">
-      <c r="B24" s="5"/>
-      <c r="C24" s="60">
-        <v>45016</v>
-      </c>
-      <c r="D24" s="122" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="123"/>
-      <c r="F24" s="59">
-        <v>4527740</v>
-      </c>
-      <c r="G24" s="59">
-        <f>10000000-F24</f>
-        <v>5472260</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="L24" s="102">
-        <v>7133653.25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="7.8" customHeight="1">
-      <c r="B25" s="5"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="10"/>
-      <c r="L25" s="102"/>
-    </row>
-    <row r="26" spans="2:12" ht="19.2" customHeight="1">
-      <c r="B26" s="5"/>
-      <c r="C26" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="10"/>
-      <c r="L26" s="102">
-        <v>14509106.75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="21">
-      <c r="B27" s="5"/>
-      <c r="C27" s="60">
-        <v>45027</v>
-      </c>
-      <c r="D27" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="126"/>
-      <c r="F27" s="66">
-        <v>11110650</v>
-      </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="10"/>
-      <c r="L27" s="102">
-        <v>14509106.75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="21">
-      <c r="B28" s="5"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="71">
-        <f>F27-SUM(F22:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="10"/>
-      <c r="L28" s="103">
-        <f>F24+G24+3866346.75</f>
-        <v>13866346.75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="10.199999999999999" customHeight="1">
-      <c r="B29" s="5"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="2:12" ht="20.399999999999999">
-      <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="75">
-        <f>F17+F27</f>
-        <v>34527740</v>
-      </c>
-      <c r="G30" s="76">
-        <f>G4-F30</f>
-        <v>863472260</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="L30" s="59">
-        <v>7380255</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="20.399999999999999">
-      <c r="B31" s="5"/>
-      <c r="C31" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:12" ht="21">
-      <c r="B32" s="5"/>
-      <c r="C32" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="83">
-        <f>F28</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="80"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="10"/>
-      <c r="L32" s="1">
-        <v>6582910</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.399999999999999">
-      <c r="B33" s="5"/>
-      <c r="C33" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="80"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" ht="20.399999999999999">
-      <c r="B34" s="5"/>
-      <c r="C34" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="130"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" ht="6" customHeight="1">
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-    </row>
-    <row r="36" spans="2:8" ht="18.600000000000001">
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-    </row>
-    <row r="37" spans="2:8" ht="19.8">
-      <c r="C37" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="93"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="91"/>
-    </row>
-    <row r="38" spans="2:8" ht="19.8">
-      <c r="C38" s="92"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="97">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="19.8">
-      <c r="C39" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94">
-        <v>89800000000</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="99"/>
-    </row>
-    <row r="40" spans="2:8" ht="19.8">
-      <c r="C40" s="100">
-        <v>0.01</v>
-      </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="94">
-        <f>E39*C40</f>
-        <v>898000000</v>
-      </c>
-      <c r="F40" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="101"/>
-    </row>
-    <row r="41" spans="2:8" ht="18.600000000000001">
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-    </row>
-    <row r="42" spans="2:8" ht="18.600000000000001">
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11117,11 +11117,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11133,8 +11133,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11144,10 +11144,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11157,10 +11157,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11171,10 +11171,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11182,8 +11182,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -11191,8 +11191,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11239,10 +11239,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11266,10 +11266,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11281,10 +11281,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11301,10 +11301,10 @@
       <c r="C23" s="60">
         <v>45016</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>5472260</v>
       </c>
@@ -11318,10 +11318,10 @@
       <c r="C24" s="60">
         <v>45035</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="123"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>2094140</v>
       </c>
@@ -11349,10 +11349,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11365,10 +11365,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>7566400</v>
       </c>
@@ -11407,11 +11407,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>42094140</v>
@@ -11481,10 +11481,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -11566,22 +11566,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11597,7 +11597,7 @@
   </sheetPr>
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -11706,11 +11706,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11722,8 +11722,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11733,10 +11733,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11746,10 +11746,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11760,10 +11760,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11773,10 +11773,10 @@
       <c r="C14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27</f>
         <v>7566400</v>
@@ -11787,10 +11787,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11837,10 +11837,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11864,10 +11864,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11879,10 +11879,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11899,10 +11899,10 @@
       <c r="C23" s="60">
         <v>45035</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>7905860</v>
       </c>
@@ -11916,10 +11916,10 @@
       <c r="C24" s="60">
         <v>45051</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="123"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>1243640</v>
       </c>
@@ -11947,10 +11947,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11963,10 +11963,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="111" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>9149500</v>
       </c>
@@ -12005,11 +12005,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>51243640</v>
@@ -12079,10 +12079,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12164,22 +12164,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12304,11 +12304,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12320,8 +12320,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12331,10 +12331,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12344,10 +12344,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12358,10 +12358,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12371,10 +12371,10 @@
       <c r="C14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27</f>
         <v>16715900</v>
@@ -12385,10 +12385,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -12435,10 +12435,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -12462,10 +12462,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -12477,10 +12477,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -12497,10 +12497,10 @@
       <c r="C23" s="60">
         <v>45051</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>8756360</v>
       </c>
@@ -12515,10 +12515,10 @@
       <c r="C24" s="60">
         <v>45067</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="123"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>2485840</v>
       </c>
@@ -12546,10 +12546,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -12562,10 +12562,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>11242200</v>
       </c>
@@ -12604,11 +12604,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>62485840</v>
@@ -12678,10 +12678,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12763,22 +12763,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12903,11 +12903,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12919,8 +12919,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12930,10 +12930,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12943,10 +12943,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12957,10 +12957,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12970,10 +12970,10 @@
       <c r="C14" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27</f>
         <v>27958100</v>
@@ -12984,10 +12984,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -13034,10 +13034,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -13061,10 +13061,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -13076,10 +13076,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -13096,10 +13096,10 @@
       <c r="C23" s="60">
         <v>45067</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>17514160</v>
       </c>
@@ -13113,10 +13113,10 @@
       <c r="C24" s="60">
         <v>45090</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="123"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59">
         <v>3109228</v>
       </c>
@@ -13144,10 +13144,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -13160,10 +13160,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>20623388</v>
       </c>
@@ -13202,11 +13202,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>83109228</v>
@@ -13276,10 +13276,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13361,22 +13361,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -13392,7 +13392,7 @@
   </sheetPr>
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -13501,11 +13501,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -13517,8 +13517,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -13528,10 +13528,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="111"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -13541,10 +13541,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -13555,10 +13555,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="114"/>
+      <c r="E13" s="120"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -13568,10 +13568,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="116"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -13582,10 +13582,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="114"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -13631,10 +13631,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -13658,10 +13658,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="119"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -13673,10 +13673,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="121"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -13693,10 +13693,10 @@
       <c r="C23" s="60">
         <v>45090</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="59">
         <v>14080598</v>
       </c>
@@ -13709,8 +13709,8 @@
     <row r="24" spans="2:12" ht="19.8">
       <c r="B24" s="5"/>
       <c r="C24" s="60"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="123"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="10"/>
@@ -13733,10 +13733,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="119"/>
+      <c r="E26" s="110"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -13749,10 +13749,10 @@
       <c r="C27" s="60">
         <v>45132</v>
       </c>
-      <c r="D27" s="125" t="s">
+      <c r="D27" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="126"/>
+      <c r="E27" s="112"/>
       <c r="F27" s="66">
         <v>14080598</v>
       </c>
@@ -13791,11 +13791,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>97189826</v>
@@ -13865,10 +13865,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="130"/>
+      <c r="G34" s="116"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13950,22 +13950,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>

--- a/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
+++ b/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\ssi\Rekap LK\SSI-I.23.001 PCC Adaro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BEEAC1-17F7-436F-95E6-8F0A8BBC76C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCDA54F-2FF7-4931-9FBA-56A439523A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3042,6 +3042,51 @@
     <xf numFmtId="4" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3049,9 +3094,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3071,48 +3113,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3528,11 +3528,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -3544,8 +3544,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -3555,10 +3555,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -3566,8 +3566,8 @@
     <row r="12" spans="2:12" ht="20.399999999999999">
       <c r="B12" s="5"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="10"/>
@@ -3575,8 +3575,8 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="120"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -3584,8 +3584,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -3593,8 +3593,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -3641,10 +3641,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -3665,10 +3665,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -3680,10 +3680,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -3701,10 +3701,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>8060090</v>
       </c>
@@ -3732,10 +3732,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56"/>
       <c r="G25" s="65"/>
       <c r="H25" s="10"/>
@@ -3748,10 +3748,10 @@
       <c r="C26" s="60">
         <v>44934</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="112"/>
+      <c r="E26" s="126"/>
       <c r="F26" s="66">
         <v>8060090</v>
       </c>
@@ -3790,11 +3790,11 @@
     </row>
     <row r="29" spans="2:12" ht="20.399999999999999">
       <c r="B29" s="5"/>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
       <c r="F29" s="75">
         <f>F17+F26</f>
         <v>8060090</v>
@@ -3861,10 +3861,10 @@
       <c r="E33" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="115" t="s">
+      <c r="F33" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="116"/>
+      <c r="G33" s="130"/>
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="2:8" ht="6" customHeight="1">
@@ -3946,21 +3946,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -4085,11 +4085,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4101,8 +4101,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4112,10 +4112,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4125,10 +4125,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4139,10 +4139,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4152,10 +4152,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4166,10 +4166,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4179,10 +4179,10 @@
       <c r="C16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27</f>
         <v>14080598</v>
@@ -4193,10 +4193,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4242,10 +4242,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4269,10 +4269,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4284,10 +4284,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4304,10 +4304,10 @@
       <c r="C25" s="60">
         <v>45090</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>2810174</v>
       </c>
@@ -4321,10 +4321,10 @@
       <c r="C26" s="60">
         <v>45103</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>18312758</v>
       </c>
@@ -4352,10 +4352,10 @@
       <c r="C28" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="110"/>
+      <c r="E28" s="119"/>
       <c r="F28" s="56"/>
       <c r="G28" s="65"/>
       <c r="H28" s="10"/>
@@ -4368,10 +4368,10 @@
       <c r="C29" s="60">
         <v>45133</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E29" s="126"/>
       <c r="F29" s="66">
         <v>21122932</v>
       </c>
@@ -4410,11 +4410,11 @@
     </row>
     <row r="32" spans="2:12" ht="20.399999999999999">
       <c r="B32" s="5"/>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
       <c r="F32" s="75">
         <f>F19+F29</f>
         <v>118312758</v>
@@ -4484,10 +4484,10 @@
       <c r="E36" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="115" t="s">
+      <c r="F36" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="116"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:12" ht="6" customHeight="1">
@@ -4569,16 +4569,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F36:G36"/>
@@ -4587,6 +4577,16 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -4711,11 +4711,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -4727,8 +4727,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -4738,10 +4738,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -4751,10 +4751,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -4765,10 +4765,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -4778,10 +4778,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -4792,10 +4792,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -4805,10 +4805,10 @@
       <c r="C16" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29</f>
         <v>35203530</v>
@@ -4819,10 +4819,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -4868,10 +4868,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -4895,10 +4895,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -4910,10 +4910,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -4930,10 +4930,10 @@
       <c r="C25" s="60">
         <v>45103</v>
       </c>
-      <c r="D25" s="107" t="s">
+      <c r="D25" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>1687242</v>
       </c>
@@ -4947,10 +4947,10 @@
       <c r="C26" s="60">
         <v>45128</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>6000000</v>
       </c>
@@ -4964,10 +4964,10 @@
       <c r="C27" s="60">
         <v>45145</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>17000000</v>
       </c>
@@ -4982,10 +4982,10 @@
       <c r="C28" s="60">
         <v>44972</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="122" t="s">
         <v>124</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>1269039</v>
       </c>
@@ -5013,10 +5013,10 @@
       <c r="C30" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="110"/>
+      <c r="E30" s="119"/>
       <c r="F30" s="56"/>
       <c r="G30" s="65"/>
       <c r="H30" s="10"/>
@@ -5029,10 +5029,10 @@
       <c r="C31" s="60">
         <v>45153</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="112"/>
+      <c r="E31" s="126"/>
       <c r="F31" s="66">
         <v>25956281</v>
       </c>
@@ -5071,11 +5071,11 @@
     </row>
     <row r="34" spans="2:12" ht="20.399999999999999">
       <c r="B34" s="5"/>
-      <c r="C34" s="113" t="s">
+      <c r="C34" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
       <c r="F34" s="75">
         <f>F19+F31</f>
         <v>144269039</v>
@@ -5145,10 +5145,10 @@
       <c r="E38" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="115" t="s">
+      <c r="F38" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="116"/>
+      <c r="G38" s="130"/>
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:12" ht="6" customHeight="1">
@@ -5230,26 +5230,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -5374,11 +5374,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -5390,8 +5390,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -5401,10 +5401,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -5414,10 +5414,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -5428,10 +5428,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -5441,10 +5441,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -5455,10 +5455,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -5468,10 +5468,10 @@
       <c r="C16" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31</f>
         <v>61159811</v>
@@ -5482,10 +5482,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -5531,10 +5531,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -5558,10 +5558,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -5573,10 +5573,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -5596,7 +5596,7 @@
       <c r="D25" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>1230961</v>
       </c>
@@ -5611,10 +5611,10 @@
       <c r="C26" s="60">
         <v>45124</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>20000000</v>
       </c>
@@ -5629,10 +5629,10 @@
       <c r="C27" s="60">
         <v>45167</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>4667811</v>
       </c>
@@ -5660,10 +5660,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -5676,10 +5676,10 @@
       <c r="C30" s="60">
         <v>45194</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="112"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="66">
         <v>25898772</v>
       </c>
@@ -5718,11 +5718,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>170167811</v>
@@ -5792,10 +5792,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="116"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -5877,16 +5877,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -5896,6 +5886,16 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -6020,11 +6020,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6036,8 +6036,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6047,10 +6047,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6060,10 +6060,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6074,10 +6074,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6087,10 +6087,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6101,10 +6101,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6114,10 +6114,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6128,10 +6128,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="10"/>
@@ -6177,10 +6177,10 @@
     <row r="21" spans="2:12" ht="21">
       <c r="B21" s="5"/>
       <c r="C21" s="51"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="53">
         <v>0</v>
       </c>
@@ -6204,10 +6204,10 @@
       <c r="C23" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="119"/>
       <c r="F23" s="56" t="s">
         <v>20</v>
       </c>
@@ -6219,10 +6219,10 @@
     <row r="24" spans="2:12" ht="20.399999999999999">
       <c r="B24" s="5"/>
       <c r="C24" s="55"/>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="125"/>
+      <c r="E24" s="121"/>
       <c r="F24" s="58">
         <v>0</v>
       </c>
@@ -6242,7 +6242,7 @@
       <c r="D25" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="108"/>
+      <c r="E25" s="123"/>
       <c r="F25" s="59">
         <v>0</v>
       </c>
@@ -6256,10 +6256,10 @@
       <c r="C26" s="60">
         <v>45167</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="108"/>
+      <c r="E26" s="123"/>
       <c r="F26" s="59">
         <v>15332189</v>
       </c>
@@ -6274,10 +6274,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>5840596</v>
       </c>
@@ -6305,10 +6305,10 @@
       <c r="C29" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="110"/>
+      <c r="E29" s="119"/>
       <c r="F29" s="56"/>
       <c r="G29" s="65"/>
       <c r="H29" s="10"/>
@@ -6321,10 +6321,10 @@
       <c r="C30" s="60">
         <v>45204</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="112"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="66">
         <v>21172785</v>
       </c>
@@ -6363,11 +6363,11 @@
     </row>
     <row r="33" spans="2:12" ht="20.399999999999999">
       <c r="B33" s="5"/>
-      <c r="C33" s="113" t="s">
+      <c r="C33" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
       <c r="F33" s="75">
         <f>F19+F30</f>
         <v>191340596</v>
@@ -6437,10 +6437,10 @@
       <c r="E37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="115" t="s">
+      <c r="F37" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="116"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:12" ht="6" customHeight="1">
@@ -6522,16 +6522,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="C33:E33"/>
@@ -6541,6 +6531,16 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -6665,11 +6665,11 @@
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -6681,8 +6681,8 @@
     <row r="10" spans="2:8" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -6692,10 +6692,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -6705,10 +6705,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -6719,10 +6719,10 @@
     <row r="13" spans="2:8" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -6732,10 +6732,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -6746,10 +6746,10 @@
     <row r="15" spans="2:8" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -6759,10 +6759,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -6773,10 +6773,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -6786,10 +6786,10 @@
       <c r="C18" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30</f>
         <v>21172785</v>
@@ -6804,10 +6804,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -6853,10 +6853,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -6880,10 +6880,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -6895,10 +6895,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -6915,10 +6915,10 @@
       <c r="C27" s="60">
         <v>45189</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>15483824</v>
       </c>
@@ -6931,8 +6931,8 @@
     <row r="28" spans="2:12" ht="19.8" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59"/>
       <c r="G28" s="59"/>
       <c r="H28" s="10"/>
@@ -6940,8 +6940,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -6964,10 +6964,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -6980,10 +6980,10 @@
       <c r="C32" s="60">
         <v>45240</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>15483824</v>
       </c>
@@ -7022,11 +7022,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>206824420</v>
@@ -7096,10 +7096,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7181,27 +7181,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7326,11 +7326,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -7342,8 +7342,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -7353,10 +7353,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -7366,10 +7366,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -7380,10 +7380,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -7393,10 +7393,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -7407,10 +7407,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -7423,10 +7423,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -7437,10 +7437,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -7450,10 +7450,10 @@
       <c r="C18" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32</f>
         <v>36656609</v>
@@ -7468,10 +7468,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -7517,10 +7517,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -7544,10 +7544,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -7559,10 +7559,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="120" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="D27" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>3675580</v>
       </c>
@@ -7600,7 +7600,7 @@
       <c r="D28" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>17562013</v>
       </c>
@@ -7613,8 +7613,8 @@
     <row r="29" spans="2:12" ht="19.8">
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -7637,10 +7637,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -7653,10 +7653,10 @@
       <c r="C32" s="60">
         <v>45252</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>21237593</v>
       </c>
@@ -7695,11 +7695,11 @@
     </row>
     <row r="35" spans="2:12" ht="20.399999999999999">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>228062013</v>
@@ -7769,10 +7769,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -7854,27 +7854,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -7999,11 +7999,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8015,8 +8015,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8026,10 +8026,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8039,10 +8039,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -8053,10 +8053,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -8066,10 +8066,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -8080,10 +8080,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -8096,10 +8096,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -8110,10 +8110,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -8123,10 +8123,10 @@
       <c r="C18" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32+LK.15!F32</f>
         <v>57894202</v>
@@ -8141,10 +8141,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -8190,10 +8190,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -8217,10 +8217,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="D26" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="D27" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>2437987</v>
       </c>
@@ -8272,7 +8272,7 @@
       <c r="D28" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
         <v>23000000</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="D29" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="108"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59">
         <v>4234013</v>
       </c>
@@ -8318,10 +8318,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -8337,7 +8337,7 @@
       <c r="D32" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
         <v>29672000</v>
       </c>
@@ -8376,11 +8376,11 @@
     </row>
     <row r="35" spans="2:12" ht="21" thickTop="1">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
         <v>257734013</v>
@@ -8450,10 +8450,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:12" ht="6" customHeight="1">
@@ -8535,6 +8535,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -8547,15 +8556,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -8572,7 +8572,7 @@
   <dimension ref="B3:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G5" s="14">
         <f>F35</f>
-        <v>290553787</v>
+        <v>289863787</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="G6" s="14">
         <f>G4-G5</f>
-        <v>607446213</v>
+        <v>608136213</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="G7" s="19">
         <f>G6/G4</f>
-        <v>0.67644344432071268</v>
+        <v>0.67721181848552336</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -8680,11 +8680,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -8696,8 +8696,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -8707,10 +8707,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -8720,10 +8720,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -8734,10 +8734,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -8747,10 +8747,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -8761,10 +8761,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
@@ -8777,10 +8777,10 @@
       <c r="C16" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="116"/>
       <c r="F16" s="34">
         <f>+LK.09!F27+LK.10!F29+LK.11!F31+LK.12!F30</f>
         <v>87058583</v>
@@ -8791,10 +8791,10 @@
     <row r="17" spans="2:12" ht="20.399999999999999">
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="120"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
@@ -8804,10 +8804,10 @@
       <c r="C18" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="118"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="34">
         <f>+LK.13!F30+LK.14!F32+LK.15!F32+LK.16!F32</f>
         <v>87566202</v>
@@ -8822,10 +8822,10 @@
     <row r="19" spans="2:12" ht="20.399999999999999">
       <c r="B19" s="5"/>
       <c r="C19" s="31"/>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="120"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="10"/>
@@ -8871,10 +8871,10 @@
     <row r="23" spans="2:12" ht="21">
       <c r="B23" s="5"/>
       <c r="C23" s="51"/>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="53">
         <v>0</v>
       </c>
@@ -8898,10 +8898,10 @@
       <c r="C25" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="110"/>
+      <c r="E25" s="119"/>
       <c r="F25" s="56" t="s">
         <v>20</v>
       </c>
@@ -8913,10 +8913,10 @@
     <row r="26" spans="2:12" ht="20.399999999999999">
       <c r="B26" s="5"/>
       <c r="C26" s="55"/>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="121"/>
       <c r="F26" s="58">
         <v>0</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="D27" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="108"/>
+      <c r="E27" s="123"/>
       <c r="F27" s="59">
         <v>23765987</v>
       </c>
@@ -8954,13 +8954,13 @@
       <c r="D28" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="E28" s="108"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="59">
-        <v>9053787</v>
+        <v>8363787</v>
       </c>
       <c r="G28" s="59">
         <f>22000000-F28</f>
-        <v>12946213</v>
+        <v>13636213</v>
       </c>
       <c r="H28" s="10"/>
     </row>
@@ -8968,7 +8968,7 @@
       <c r="B29" s="5"/>
       <c r="C29" s="60"/>
       <c r="D29" s="135"/>
-      <c r="E29" s="108"/>
+      <c r="E29" s="123"/>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
       <c r="H29" s="10"/>
@@ -8991,10 +8991,10 @@
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="110"/>
+      <c r="E31" s="119"/>
       <c r="F31" s="56"/>
       <c r="G31" s="65"/>
       <c r="H31" s="10"/>
@@ -9010,9 +9010,9 @@
       <c r="D32" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="126"/>
       <c r="F32" s="66">
-        <v>32819774</v>
+        <v>32129774</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="10"/>
@@ -9049,18 +9049,18 @@
     </row>
     <row r="35" spans="2:12" ht="21" thickTop="1">
       <c r="B35" s="5"/>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
       <c r="F35" s="75">
         <f>F21+F32</f>
-        <v>290553787</v>
+        <v>289863787</v>
       </c>
       <c r="G35" s="76">
         <f>G4-F35</f>
-        <v>607446213</v>
+        <v>608136213</v>
       </c>
       <c r="H35" s="10"/>
       <c r="L35" s="59">
@@ -9123,10 +9123,10 @@
       <c r="E39" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="115" t="s">
+      <c r="F39" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G39" s="116"/>
+      <c r="G39" s="130"/>
       <c r="H39" s="10"/>
       <c r="L39" s="1">
         <v>290553787</v>
@@ -9211,15 +9211,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="D10:E10"/>
@@ -9232,6 +9223,15 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9356,11 +9356,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9372,8 +9372,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9383,10 +9383,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9396,10 +9396,10 @@
       <c r="C12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26</f>
         <v>8060090</v>
@@ -9410,10 +9410,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -9421,8 +9421,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -9430,8 +9430,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -9478,10 +9478,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -9502,10 +9502,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -9517,10 +9517,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -9538,10 +9538,10 @@
       <c r="C23" s="60">
         <v>44981</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>1939910</v>
       </c>
@@ -9555,10 +9555,10 @@
       <c r="C24" s="60">
         <v>44991</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>2619745</v>
       </c>
@@ -9586,10 +9586,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -9602,10 +9602,10 @@
       <c r="C27" s="60">
         <v>44934</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>4559655</v>
       </c>
@@ -9644,11 +9644,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>12619745</v>
@@ -9715,10 +9715,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -9800,22 +9800,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -9940,11 +9940,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -9956,8 +9956,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -9967,10 +9967,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -9980,10 +9980,10 @@
       <c r="C12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27</f>
         <v>12619745</v>
@@ -9994,10 +9994,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10005,8 +10005,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -10014,8 +10014,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -10062,10 +10062,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -10086,10 +10086,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -10101,10 +10101,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -10122,10 +10122,10 @@
       <c r="C23" s="60">
         <v>44991</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>7380255</v>
       </c>
@@ -10139,10 +10139,10 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>3417090</v>
       </c>
@@ -10170,10 +10170,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -10186,10 +10186,10 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>10797345</v>
       </c>
@@ -10228,11 +10228,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>23417090</v>
@@ -10302,10 +10302,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10387,22 +10387,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -10527,11 +10527,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -10543,8 +10543,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -10554,10 +10554,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -10567,10 +10567,10 @@
       <c r="C12" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27</f>
         <v>23417090</v>
@@ -10581,10 +10581,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -10592,8 +10592,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -10601,8 +10601,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -10649,10 +10649,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -10676,10 +10676,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -10691,10 +10691,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -10712,10 +10712,10 @@
       <c r="C23" s="60">
         <v>45001</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>6582910</v>
       </c>
@@ -10729,10 +10729,10 @@
       <c r="C24" s="60">
         <v>45016</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>4527740</v>
       </c>
@@ -10760,10 +10760,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -10776,10 +10776,10 @@
       <c r="C27" s="60">
         <v>45027</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>11110650</v>
       </c>
@@ -10818,11 +10818,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>34527740</v>
@@ -10892,10 +10892,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -10977,22 +10977,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11117,11 +11117,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11133,8 +11133,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11144,10 +11144,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11157,10 +11157,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11171,10 +11171,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11182,8 +11182,8 @@
     <row r="14" spans="2:12" ht="20.399999999999999">
       <c r="B14" s="5"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34"/>
       <c r="G14" s="36"/>
       <c r="H14" s="10"/>
@@ -11191,8 +11191,8 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11239,10 +11239,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11266,10 +11266,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11281,10 +11281,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11301,10 +11301,10 @@
       <c r="C23" s="60">
         <v>45016</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>5472260</v>
       </c>
@@ -11318,10 +11318,10 @@
       <c r="C24" s="60">
         <v>45035</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>2094140</v>
       </c>
@@ -11349,10 +11349,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11365,10 +11365,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>7566400</v>
       </c>
@@ -11407,11 +11407,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>42094140</v>
@@ -11481,10 +11481,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -11566,22 +11566,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -11706,11 +11706,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -11722,8 +11722,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -11733,10 +11733,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -11746,10 +11746,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -11760,10 +11760,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -11773,10 +11773,10 @@
       <c r="C14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27</f>
         <v>7566400</v>
@@ -11787,10 +11787,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -11837,10 +11837,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -11864,10 +11864,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -11879,10 +11879,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -11899,10 +11899,10 @@
       <c r="C23" s="60">
         <v>45035</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>7905860</v>
       </c>
@@ -11916,10 +11916,10 @@
       <c r="C24" s="60">
         <v>45051</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>1243640</v>
       </c>
@@ -11947,10 +11947,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -11963,10 +11963,10 @@
       <c r="C27" s="60">
         <v>45085</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>9149500</v>
       </c>
@@ -12005,11 +12005,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>51243640</v>
@@ -12079,10 +12079,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12164,22 +12164,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12304,11 +12304,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12320,8 +12320,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12331,10 +12331,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12344,10 +12344,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12358,10 +12358,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12371,10 +12371,10 @@
       <c r="C14" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27</f>
         <v>16715900</v>
@@ -12385,10 +12385,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -12435,10 +12435,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -12462,10 +12462,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -12477,10 +12477,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -12497,10 +12497,10 @@
       <c r="C23" s="60">
         <v>45051</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>8756360</v>
       </c>
@@ -12515,10 +12515,10 @@
       <c r="C24" s="60">
         <v>45067</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>2485840</v>
       </c>
@@ -12546,10 +12546,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -12562,10 +12562,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>11242200</v>
       </c>
@@ -12604,11 +12604,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>62485840</v>
@@ -12678,10 +12678,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -12763,22 +12763,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -12903,11 +12903,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -12919,8 +12919,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -12930,10 +12930,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -12943,10 +12943,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -12957,10 +12957,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -12970,10 +12970,10 @@
       <c r="C14" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27</f>
         <v>27958100</v>
@@ -12984,10 +12984,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -13034,10 +13034,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -13061,10 +13061,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -13076,10 +13076,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -13096,10 +13096,10 @@
       <c r="C23" s="60">
         <v>45067</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>17514160</v>
       </c>
@@ -13113,10 +13113,10 @@
       <c r="C24" s="60">
         <v>45090</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59">
         <v>3109228</v>
       </c>
@@ -13144,10 +13144,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -13160,10 +13160,10 @@
       <c r="C27" s="60">
         <v>45099</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>20623388</v>
       </c>
@@ -13202,11 +13202,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>83109228</v>
@@ -13276,10 +13276,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13361,22 +13361,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>
@@ -13501,11 +13501,11 @@
     </row>
     <row r="9" spans="2:12" ht="20.399999999999999">
       <c r="B9" s="5"/>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="20" t="s">
         <v>12</v>
       </c>
@@ -13517,8 +13517,8 @@
     <row r="10" spans="2:12" ht="7.8" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
       <c r="H10" s="10"/>
@@ -13528,10 +13528,10 @@
       <c r="C11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="129"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="27"/>
       <c r="G11" s="24"/>
       <c r="H11" s="10"/>
@@ -13541,10 +13541,10 @@
       <c r="C12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="130"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="29">
         <f>LK.01!F26+LK.02!F27+LK.03!F27+LK.04!F27</f>
         <v>34527740</v>
@@ -13555,10 +13555,10 @@
     <row r="13" spans="2:12" ht="20.399999999999999">
       <c r="B13" s="5"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="119" t="s">
+      <c r="D13" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="120"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
       <c r="H13" s="10"/>
@@ -13568,10 +13568,10 @@
       <c r="C14" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="115" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="118"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="34">
         <f>+LK.05!F27+LK.06!F27+LK.07!F27+LK.08!F27</f>
         <v>48581488</v>
@@ -13582,10 +13582,10 @@
     <row r="15" spans="2:12" ht="20.399999999999999">
       <c r="B15" s="5"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="119" t="s">
+      <c r="D15" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="32"/>
       <c r="G15" s="33"/>
       <c r="H15" s="10"/>
@@ -13631,10 +13631,10 @@
     <row r="19" spans="2:12" ht="21">
       <c r="B19" s="5"/>
       <c r="C19" s="51"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="122"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="53">
         <v>0</v>
       </c>
@@ -13658,10 +13658,10 @@
       <c r="C21" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="110"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="56" t="s">
         <v>20</v>
       </c>
@@ -13673,10 +13673,10 @@
     <row r="22" spans="2:12" ht="20.399999999999999">
       <c r="B22" s="5"/>
       <c r="C22" s="55"/>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="125"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="58">
         <v>0</v>
       </c>
@@ -13693,10 +13693,10 @@
       <c r="C23" s="60">
         <v>45090</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="108"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="59">
         <v>14080598</v>
       </c>
@@ -13709,8 +13709,8 @@
     <row r="24" spans="2:12" ht="19.8">
       <c r="B24" s="5"/>
       <c r="C24" s="60"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="59"/>
       <c r="G24" s="59"/>
       <c r="H24" s="10"/>
@@ -13733,10 +13733,10 @@
       <c r="C26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="110"/>
+      <c r="E26" s="119"/>
       <c r="F26" s="56"/>
       <c r="G26" s="65"/>
       <c r="H26" s="10"/>
@@ -13749,10 +13749,10 @@
       <c r="C27" s="60">
         <v>45132</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="125" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="126"/>
       <c r="F27" s="66">
         <v>14080598</v>
       </c>
@@ -13791,11 +13791,11 @@
     </row>
     <row r="30" spans="2:12" ht="20.399999999999999">
       <c r="B30" s="5"/>
-      <c r="C30" s="113" t="s">
+      <c r="C30" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
       <c r="F30" s="75">
         <f>F17+F27</f>
         <v>97189826</v>
@@ -13865,10 +13865,10 @@
       <c r="E34" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="116"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" ht="6" customHeight="1">
@@ -13950,22 +13950,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="C30:E30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.9370078740157501E-2" right="3.9370078740157501E-2" top="3.9370078740157501E-2" bottom="3.9370078740157501E-2" header="3.9370078740157501E-2" footer="3.9370078740157501E-2"/>

--- a/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
+++ b/Rekap LK/SSI-I.23.001 PCC Adaro/Rekap LK Adaro PCC (version 1).xlsx
@@ -2457,10 +2457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00"/>
     <numFmt numFmtId="181" formatCode="dd\-mmm\-yy"/>
@@ -2616,30 +2616,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2653,17 +2632,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2678,7 +2648,60 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2692,19 +2715,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2718,43 +2754,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2797,7 +2797,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2809,7 +2839,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,19 +2893,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2845,13 +2929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2869,79 +2947,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2959,25 +2965,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3254,30 +3254,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3317,6 +3293,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3332,11 +3326,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3354,145 +3354,145 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3519,7 +3519,7 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3556,7 +3556,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3567,7 +3567,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3575,7 +3575,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3584,7 +3584,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3652,21 +3652,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3685,8 +3685,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3747,7 +3747,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -9924,7 +9924,7 @@
   <dimension ref="B3:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="16.5"/>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="G5" s="14">
         <f>F37</f>
-        <v>311820035</v>
+        <v>311020035</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="G6" s="14">
         <f>G4-G5</f>
-        <v>586179965</v>
+        <v>586979965</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="G7" s="19">
         <f>G6/G4</f>
-        <v>0.652761653674833</v>
+        <v>0.653652522271715</v>
       </c>
       <c r="H7" s="10"/>
     </row>
@@ -10335,11 +10335,11 @@
       </c>
       <c r="E30" s="74"/>
       <c r="F30" s="71">
-        <v>8320035</v>
+        <v>7520035</v>
       </c>
       <c r="G30" s="71">
         <f>18000000-F30</f>
-        <v>9679965</v>
+        <v>10479965</v>
       </c>
       <c r="H30" s="10"/>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="E34" s="82"/>
       <c r="F34" s="83">
-        <v>21956248</v>
+        <v>21156248</v>
       </c>
       <c r="G34" s="84"/>
       <c r="H34" s="10"/>
@@ -10435,11 +10435,11 @@
       <c r="E37" s="93"/>
       <c r="F37" s="94">
         <f>F23+F34</f>
-        <v>311820035</v>
+        <v>311020035</v>
       </c>
       <c r="G37" s="95">
         <f>G4-F37</f>
-        <v>586179965</v>
+        <v>586979965</v>
       </c>
       <c r="H37" s="10"/>
       <c r="L37" s="71">
